--- a/Olymp/Moscow/2014/answers/E/Вклады.xlsx
+++ b/Olymp/Moscow/2014/answers/E/Вклады.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="6 месяцев (пример)" sheetId="4" r:id="rId1"/>
+    <sheet name="12 месяцев" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Лист1 (2)" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="15">
   <si>
     <t>Месяцы</t>
   </si>
@@ -50,6 +53,18 @@
   <si>
     <t>Итого</t>
   </si>
+  <si>
+    <t>Открытие</t>
+  </si>
+  <si>
+    <t>Бонус</t>
+  </si>
+  <si>
+    <t>Ставка</t>
+  </si>
+  <si>
+    <t>Выплата</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,23 +83,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,16 +101,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,22 +113,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,44 +442,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
       <c r="J1">
@@ -483,25 +499,1763 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.015*C2</f>
+        <v>450</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:I5" si="0">0.015*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>(C7)*(C3/12)</f>
+        <v>101.5</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:I6" si="1">(D7)*(D3/12)</f>
+        <v>101.83833333333334</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>102.17779444444444</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>101.5</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>101.83833333333334</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>102.17779444444444</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2+C5</f>
+        <v>30450</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:H7" si="2">C7+D6+D4*1.015</f>
+        <v>30551.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>30653.338333333333</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F2+F5</f>
+        <v>30450</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>30551.5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>30653.338333333333</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I2+I5</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f>E7*(F3/12+1)</f>
+        <v>30755.516127777781</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f>H7*(I3/12+1)</f>
+        <v>30755.516127777781</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>70000</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>755.52</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0.015*C9</f>
+        <v>1050</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:I12" si="3">0.015*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>(C14)*(C10/12)</f>
+        <v>384.85416666666669</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:I13" si="4">(D14)*(D10/12)</f>
+        <v>386.93879340277783</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="4"/>
+        <v>389.03471186704286</v>
+      </c>
+      <c r="G13" s="1">
+        <f>(F14)*(F10/12)</f>
+        <v>395.29576922298935</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>397.43695463961382</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>399.58973814391175</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C9+C12</f>
+        <v>71050</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:E14" si="5">C14+D13+D11*1.015</f>
+        <v>71434.854166666672</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>71821.792960069448</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14+F13+F11*1.015</f>
+        <v>72977.680471936488</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14+G13+G11*1.015</f>
+        <v>73372.976241159471</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="6">G14+H13+H11*1.015</f>
+        <v>73770.41319579909</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I9+I12</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <f>H14*(I10/12+1)</f>
+        <v>74170.002933943004</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <f>I8+I15</f>
+        <v>104925.51906172078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>963672.838670371 - 30000</f>
+        <v>933672.83867037098</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.015*C2</f>
+        <v>450</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:I5" si="0">0.015*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>(C7)*(C3/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:F6" si="1">(D7)*(D3/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6" si="2">(F7)*(F3/12)</f>
+        <v>5300.8877394639485</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6" si="3">(G7)*(G3/12)</f>
+        <v>5329.6008813860453</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="4">(H7)*(H3/12)</f>
+        <v>5358.4695528268867</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2+C5</f>
+        <v>30450</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:E7" si="5">C7+D6+D4*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="5"/>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7" si="6">E7+F6+F4*1.015</f>
+        <v>978625.42882411357</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7" si="7">F7+G6+G4*1.015</f>
+        <v>983926.31656357751</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7" si="8">G7+H6+H4*1.015</f>
+        <v>989255.91744496359</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I2+I4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <f>H7*(I3/12+1)</f>
+        <v>994614.38699779043</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>1057480.6676311088</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0.015*C9</f>
+        <v>450</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:O12" si="9">0.015*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>(C14)*(C10/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13" si="10">(D14)*(D10/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13" si="11">(E14)*(E10/12)</f>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="12">(F14)*(F10/12)</f>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="13">(G14)*(G10/12)</f>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="14">(H14)*(H10/12)</f>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13" si="15">(I14)*(I10/12)</f>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13" si="16">(J14)*(J10/12)</f>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="17">(K14)*(K10/12)</f>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13" si="18">(L14)*(L10/12)</f>
+        <v>8756.0900490001313</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ref="N13" si="19">(M14)*(M10/12)</f>
+        <v>8825.4090952213828</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13" si="20">(N14)*(N10/12)</f>
+        <v>8895.2769172252192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C9+C12</f>
+        <v>30450</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14" si="21">C14+D13+D11*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14" si="22">D14+E13+E11*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14" si="23">E14+F13+F11*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="24">F14+G13+G11*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="25">G14+H13+H11*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14" si="26">H14+I13+I11*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14" si="27">I14+J13+J11*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ref="K14" si="28">J14+K13+K11*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14" si="29">K14+L13+L11*1.015</f>
+        <v>1106032.4272421217</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ref="M14" si="30">L14+M13+M11*1.015</f>
+        <v>1114788.5172911219</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" ref="N14" si="31">M14+N13+N11*1.015</f>
+        <v>1123613.9263863433</v>
+      </c>
+      <c r="O14" s="1">
+        <f>O9+O11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <f>N14*(O10/12+1)</f>
+        <v>1132509.2033035685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>940000</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <f>0.015*C16</f>
+        <v>14100</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:F19" si="32">0.015*D16</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f>(C21)*(C17/12)</f>
+        <v>3180.3333333333335</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:F20" si="33">(D21)*(D17/12)</f>
+        <v>3190.9344444444446</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="33"/>
+        <v>3201.5708925925933</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C16+C19</f>
+        <v>954100</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:F21" si="34">C21+D20+D18*1.015</f>
+        <v>957280.33333333337</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="34"/>
+        <v>960471.26777777786</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F16+F18</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <f>E21*(F17/12+1)</f>
+        <v>963672.83867037052</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>994614.38699779043</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <f>0.015*F23</f>
+        <v>450</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ref="G26:L26" si="35">0.015*G23</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <f>(F28)*(F24/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27" si="36">(G28)*(G24/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ref="I27" si="37">(H28)*(H24/12)</f>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ref="J27" si="38">(I28)*(I24/12)</f>
+        <v>5635.9392937057401</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" ref="K27" si="39">(J28)*(J24/12)</f>
+        <v>5666.4672982133125</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ref="L27" si="40">(K28)*(K24/12)</f>
+        <v>5697.160662745302</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <f>F23+F26</f>
+        <v>30450</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28" si="41">F28+G27+G25*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28" si="42">G28+H27+H25*1.015</f>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28" si="43">H28+I27+I25*1.015</f>
+        <v>1040481.1003764443</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28" si="44">I28+J27+J25*1.015</f>
+        <v>1046117.03967015</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" ref="K28" si="45">J28+K27+K25*1.015</f>
+        <v>1051783.5069683634</v>
+      </c>
+      <c r="L28" s="1">
+        <f>L23+L25</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
+        <f>K28*(L24/12+1)</f>
+        <v>1057480.6676311088</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="4">
+        <f>O15</f>
+        <v>1132509.2033035685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>30000</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -512,44 +2266,32 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <f>0.015*C2</f>
-        <v>450</v>
-      </c>
-      <c r="D4" s="1">
-        <f>(C2+C3+C4)*4/1200+C4</f>
-        <v>551.5</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:F4" si="0">(D2+D3+D4)*4/1200+D4</f>
-        <v>653.33833333333337</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>755.5161277777778</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -561,27 +2303,29 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.015*C2</f>
+        <v>15000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:F5" si="0">0.015*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>30000</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -590,16 +2334,26 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <f>(C7)*(C3/12)</f>
+        <v>3383.3333333333335</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:F6" si="1">(D7)*(D3/12)</f>
+        <v>3394.6111111111113</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>3405.9264814814819</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -608,28 +2362,29 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2+C5</f>
+        <v>1015000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:E7" si="2">C7+D6+D4*1.015</f>
+        <v>1018383.3333333334</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>1021777.9444444445</v>
+      </c>
       <c r="F7" s="1">
-        <f>0.015*F5</f>
-        <v>450</v>
-      </c>
-      <c r="G7" s="1">
-        <f>(F5+F6+F7)*4/1200+F7</f>
-        <v>551.5</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7" si="1">(G5+G6+G7)*4/1200+G7</f>
-        <v>653.33833333333337</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" ref="I7" si="2">(H5+H6+H7)*4/1200+H7</f>
-        <v>755.5161277777778</v>
-      </c>
+        <f>F2+F5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -638,33 +2393,20 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70000</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>70000</v>
-      </c>
+        <f>E7*(F3/12+1)</f>
+        <v>1025183.870925926</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -673,28 +2415,21 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <f>755.52*1.015</f>
-        <v>766.85279999999989</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:I9" si="3">755.52*1.015</f>
-        <v>766.85279999999989</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>766.85279999999989</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
-        <v>766.85279999999989</v>
-      </c>
+        <v>1025183.870925926</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -702,48 +2437,27 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <f>0.015*C8</f>
-        <v>1050</v>
-      </c>
-      <c r="D10" s="1">
-        <f>(C8+C9+C10)*65/12000+C10</f>
-        <v>1434.8541666666667</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" ref="E10:I10" si="4">(D8+D9+D10)*65/12000+D10</f>
-        <v>1821.7929600694447</v>
-      </c>
-      <c r="F10" s="1">
-        <f>(E8+E9+E10)*65/12000+E10</f>
-        <v>2210.8276719364876</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="4"/>
-        <v>2606.1234411594769</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>3003.5603957990907</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="4"/>
-        <v>3403.1501339430024</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -760,15 +2474,29 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1">
+        <f>0.015*F9</f>
+        <v>15377.75806388889</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12:I12" si="3">0.015*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -777,16 +2505,26 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1">
+        <f>(F14)*(F10/12)</f>
+        <v>3468.5387632993834</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:I13" si="4">(G14)*(G10/12)</f>
+        <v>3480.1005591770477</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>3491.7008943743044</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -795,16 +2533,29 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="F14" s="1">
+        <f>F9+F12</f>
+        <v>1040561.6289898149</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="5">F14+G13+G11*1.015</f>
+        <v>1044030.1677531142</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14" si="6">G14+H13+H11*1.015</f>
+        <v>1047510.2683122912</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I9+I12</f>
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -813,12 +2564,618 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <f>H14*(I10/12+1)</f>
+        <v>1051001.9692066656</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>1051001.9692066656</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <f>0.015*I16</f>
+        <v>15765.029538099983</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:L19" si="7">0.015*J16</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f>(I21)*(I17/12)</f>
+        <v>3555.8899958158854</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ref="K20:L20" si="8">(J21)*(J17/12)</f>
+        <v>3567.7429624686051</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="8"/>
+        <v>3579.6354390101674</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <f>I16+I19</f>
+        <v>1066766.9987447655</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J21" si="9">I21+J20+J18*1.015</f>
+        <v>1070322.8887405815</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21" si="10">J21+K20+K18*1.015</f>
+        <v>1073890.6317030501</v>
+      </c>
+      <c r="L21" s="1">
+        <f>L16+L19</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>K21*(L17/12+1)</f>
+        <v>1077470.2671420604</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <v>1077470.2671420604</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <f>0.015*L23</f>
+        <v>16162.054007130906</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:O26" si="11">0.015*M23</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
+        <f>(L28)*(L24/12)</f>
+        <v>3645.4410704973047</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" ref="N27:O27" si="12">(M28)*(M24/12)</f>
+        <v>3657.5925407322957</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="12"/>
+        <v>3669.7845158680702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <f>L23+L26</f>
+        <v>1093632.3211491914</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ref="M28" si="13">L28+M27+M25*1.015</f>
+        <v>1097277.7622196886</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28" si="14">M28+N27+N25*1.015</f>
+        <v>1100935.354760421</v>
+      </c>
+      <c r="O28" s="1">
+        <f>O23+O26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <f>N28*(O24/12+1)</f>
+        <v>1104605.1392762891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="2">
-        <f>SUM(I5:I10)</f>
-        <v>104925.51906172077</v>
+      <c r="O44" s="1">
+        <f>O29</f>
+        <v>1104605.1392762891</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +3183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -1112,7 +3469,7 @@
         <v>614.9375</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:I10" si="3">(D8+D9+D10)*65/12000+D10</f>
+        <f t="shared" ref="E10" si="3">(D8+D9+D10)*65/12000+D10</f>
         <v>780.76841145833328</v>
       </c>
       <c r="F10" s="1">
@@ -1323,7 +3680,1075 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>970000</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.015*C2</f>
+        <v>14550</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:F5" si="0">0.015*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>(C7)*(C3/12)</f>
+        <v>3281.8333333333335</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:F6" si="1">(D7)*(D3/12)</f>
+        <v>3292.7727777777782</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>3303.7486870370371</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2+C5</f>
+        <v>984550</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:E7" si="2">C7+D6+D4*1.015</f>
+        <v>987831.83333333337</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>991124.60611111112</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F2+F5</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f>E7*(F3/12+1)</f>
+        <v>994428.35479814827</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>994428.35479814827</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f>0.015*F9</f>
+        <v>14916.425321972223</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12:I12" si="3">0.015*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <f>(F14)*(F10/12)</f>
+        <v>3364.4826004004017</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:I13" si="4">(G14)*(G10/12)</f>
+        <v>3375.6975424017369</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>3386.9498675430759</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f>F9+F12</f>
+        <v>1009344.7801201205</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:H14" si="5">F14+G13+G11*1.015</f>
+        <v>1012709.262720521</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>1016084.9602629227</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I9+I12</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <f>H14*(I10/12+1)</f>
+        <v>1019471.9101304659</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>1019471.9101304659</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <f>0.015*I16</f>
+        <v>15292.078651956988</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:L19" si="6">0.015*J16</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f>(I21)*(I17/12)</f>
+        <v>3449.2132959414098</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ref="K20:L20" si="7">(J21)*(J17/12)</f>
+        <v>3460.7106735945476</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="7"/>
+        <v>3472.2463758398626</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <f>I16+I19</f>
+        <v>1034763.9887824228</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J21:K21" si="8">I21+J20+J18*1.015</f>
+        <v>1038213.2020783642</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="8"/>
+        <v>1041673.9127519587</v>
+      </c>
+      <c r="L21" s="1">
+        <f>L16+L19</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>K21*(L17/12+1)</f>
+        <v>1045146.1591277986</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>1045146.1591277986</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <f>0.015*C23</f>
+        <v>450</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f>(C28)*(C24/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:O27" si="9">(D28)*(D24/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="9"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="9"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="9"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="9"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="9"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="9"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="9"/>
+        <v>8656.9771337974908</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="9"/>
+        <v>8725.5115361067219</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="9"/>
+        <v>8794.5885024342315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C23+C26</f>
+        <v>30450</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28" si="10">C28+D27+D25*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28" si="11">D28+E27+E25*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28" si="12">E28+F27+F25*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28" si="13">F28+G27+G25*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28" si="14">G28+H27+H25*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28" si="15">H28+I27+I25*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28" si="16">I28+J27+J25*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" ref="K28" si="17">J28+K27+K25*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28" si="18">K28+L27+L25*1.015</f>
+        <v>1093512.9011112619</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ref="M28" si="19">L28+M27+M25*1.015</f>
+        <v>1102169.8782450594</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28" si="20">M28+N27+N25*1.015</f>
+        <v>1110895.3897811661</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28" si="21">N28+O27+O25*1.015</f>
+        <v>1119689.9782836004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1">
+        <f>O29</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Olymp/Moscow/2014/answers/E/Вклады.xlsx
+++ b/Olymp/Moscow/2014/answers/E/Вклады.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,48 +454,47 @@
     <col min="10" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>4</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>6</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>7</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>8</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>10</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>11</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>12</v>
       </c>
     </row>
@@ -952,9 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1014,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4">
-        <v>30000</v>
+        <v>940000</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1035,26 +1032,20 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F3" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1070,10 +1061,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>963672.838670371 - 30000</f>
-        <v>933672.83867037098</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1091,10 +1079,10 @@
       </c>
       <c r="C5" s="1">
         <f>0.015*C2</f>
-        <v>450</v>
+        <v>14100</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:I5" si="0">0.015*D2</f>
+        <f t="shared" ref="D5:F5" si="0">0.015*D2</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -1105,18 +1093,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1132,28 +1111,19 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <f>(C7)*(C3/12)</f>
-        <v>164.9375</v>
+        <v>3180.3333333333335</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:F6" si="1">(D7)*(D3/12)</f>
-        <v>165.83091145833333</v>
+        <f t="shared" ref="E6" si="1">(D7)*(D3/12)</f>
+        <v>3190.9344444444446</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>166.72916222873263</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6" si="2">(F7)*(F3/12)</f>
-        <v>5300.8877394639485</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6" si="3">(G7)*(G3/12)</f>
-        <v>5329.6008813860453</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6" si="4">(H7)*(H3/12)</f>
-        <v>5358.4695528268867</v>
-      </c>
+        <f t="shared" ref="F6" si="2">(E7)*(E3/12)</f>
+        <v>3201.5708925925933</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1168,32 +1138,23 @@
       </c>
       <c r="C7" s="1">
         <f>C2+C5</f>
-        <v>30450</v>
+        <v>954100</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:E7" si="5">C7+D6+D4*1.015</f>
-        <v>30614.9375</v>
+        <f t="shared" ref="D7" si="3">C7+D6+D4*1.015</f>
+        <v>957280.33333333337</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
-        <v>30780.768411458332</v>
+        <f t="shared" ref="E7" si="4">D7+E6+E4*1.015</f>
+        <v>960471.26777777786</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7" si="6">E7+F6+F4*1.015</f>
-        <v>978625.42882411357</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7" si="7">F7+G6+G4*1.015</f>
-        <v>983926.31656357751</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7" si="8">G7+H6+H4*1.015</f>
-        <v>989255.91744496359</v>
-      </c>
-      <c r="I7" s="1">
-        <f>I2+I4</f>
-        <v>0</v>
-      </c>
+        <f>F2+F4</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1209,13 +1170,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <f>E7*(F3/12+1)</f>
+        <v>963672.83867037052</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <f>H7*(I3/12+1)</f>
-        <v>994614.38699779043</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1239,12 +1200,6 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1252,43 +1207,25 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1299,18 +1236,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <f>963672.838670371 - 30000</f>
+        <v>933672.83867037098</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>1057480.6676311088</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1322,51 +1254,27 @@
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:O12" si="9">0.015*D9</f>
+        <f t="shared" ref="D12:I12" si="5">0.015*D9</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1378,51 +1286,27 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>(C14)*(C10/12)</f>
-        <v>241.06250000000003</v>
+        <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="10">(D14)*(D10/12)</f>
-        <v>242.97091145833335</v>
+        <f t="shared" ref="E13" si="6">(D14)*(D10/12)</f>
+        <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="11">(E14)*(E10/12)</f>
-        <v>244.89443117404517</v>
+        <f t="shared" ref="F13" si="7">(E14)*(E10/12)</f>
+        <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="12">(F14)*(F10/12)</f>
-        <v>246.83317875417302</v>
+        <f t="shared" ref="G13" si="8">(F14)*(F10/12)</f>
+        <v>5300.8877394639485</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13" si="13">(G14)*(G10/12)</f>
-        <v>248.78727475264355</v>
+        <f t="shared" ref="H13" si="9">(G14)*(G10/12)</f>
+        <v>5329.6008813860453</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13" si="14">(H14)*(H10/12)</f>
-        <v>250.75684067776868</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" ref="J13" si="15">(I14)*(I10/12)</f>
-        <v>252.74199899980098</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13" si="16">(J14)*(J10/12)</f>
-        <v>254.74287315854943</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13" si="17">(K14)*(K10/12)</f>
-        <v>256.75958757105462</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" ref="M13" si="18">(L14)*(L10/12)</f>
-        <v>8756.0900490001313</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" ref="N13" si="19">(M14)*(M10/12)</f>
-        <v>8825.4090952213828</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13" si="20">(N14)*(N10/12)</f>
-        <v>8895.2769172252192</v>
+        <f t="shared" ref="I13" si="10">(H14)*(H10/12)</f>
+        <v>5358.4695528268867</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1435,51 +1319,27 @@
         <v>30450</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14" si="21">C14+D13+D11*1.015</f>
-        <v>30691.0625</v>
+        <f t="shared" ref="D14" si="11">C14+D13+D11*1.015</f>
+        <v>30614.9375</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14" si="22">D14+E13+E11*1.015</f>
-        <v>30934.033411458335</v>
+        <f t="shared" ref="E14" si="12">D14+E13+E11*1.015</f>
+        <v>30780.768411458332</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14" si="23">E14+F13+F11*1.015</f>
-        <v>31178.92784263238</v>
+        <f t="shared" ref="F14" si="13">E14+F13+F11*1.015</f>
+        <v>978625.42882411357</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14" si="24">F14+G13+G11*1.015</f>
-        <v>31425.761021386552</v>
+        <f t="shared" ref="G14" si="14">F14+G13+G11*1.015</f>
+        <v>983926.31656357751</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="25">G14+H13+H11*1.015</f>
-        <v>31674.548296139197</v>
+        <f t="shared" ref="H14" si="15">G14+H13+H11*1.015</f>
+        <v>989255.91744496359</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14" si="26">H14+I13+I11*1.015</f>
-        <v>31925.305136816965</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" ref="J14" si="27">I14+J13+J11*1.015</f>
-        <v>32178.047135816767</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" ref="K14" si="28">J14+K13+K11*1.015</f>
-        <v>32432.790008975317</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" ref="L14" si="29">K14+L13+L11*1.015</f>
-        <v>1106032.4272421217</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" ref="M14" si="30">L14+M13+M11*1.015</f>
-        <v>1114788.5172911219</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" ref="N14" si="31">M14+N13+N11*1.015</f>
-        <v>1123613.9263863433</v>
-      </c>
-      <c r="O14" s="1">
-        <f>O9+O11</f>
+        <f>I9+I11</f>
         <v>0</v>
       </c>
     </row>
@@ -1494,15 +1354,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <f>N14*(O10/12+1)</f>
-        <v>1132509.2033035685</v>
+      <c r="I15" s="1">
+        <f>H14*(I10/12+1)</f>
+        <v>994614.38699779043</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1512,12 +1366,9 @@
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
-        <v>940000</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>30000</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1533,24 +1384,27 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.04</v>
-      </c>
       <c r="F17" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1560,13 +1414,12 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>994614.38699779043</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1579,28 +1432,34 @@
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1">
-        <f>0.015*C16</f>
-        <v>14100</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:F19" si="32">0.015*D16</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
       <c r="F19" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+        <f>0.015*F16</f>
+        <v>450</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19:L19" si="16">0.015*G16</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1610,25 +1469,31 @@
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <f>(C21)*(C17/12)</f>
-        <v>3180.3333333333335</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" ref="E20:F20" si="33">(D21)*(D17/12)</f>
-        <v>3190.9344444444446</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="33"/>
-        <v>3201.5708925925933</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <f>(F21)*(F17/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20" si="17">(G21)*(G17/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20" si="18">(H21)*(H17/12)</f>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" ref="J20" si="19">(I21)*(I17/12)</f>
+        <v>5635.9392937057401</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ref="K20" si="20">(J21)*(J17/12)</f>
+        <v>5666.4672982133125</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20" si="21">(K21)*(K17/12)</f>
+        <v>5697.160662745302</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1638,28 +1503,34 @@
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
-        <f>C16+C19</f>
-        <v>954100</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:F21" si="34">C21+D20+D18*1.015</f>
-        <v>957280.33333333337</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="34"/>
-        <v>960471.26777777786</v>
-      </c>
       <c r="F21" s="1">
-        <f>F16+F18</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+        <f>F16+F19</f>
+        <v>30450</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21" si="22">F21+G20+G18*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21" si="23">G21+H20+H18*1.015</f>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21" si="24">H21+I20+I18*1.015</f>
+        <v>1040481.1003764443</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J21" si="25">I21+J20+J18*1.015</f>
+        <v>1046117.03967015</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21" si="26">J21+K20+K18*1.015</f>
+        <v>1051783.5069683634</v>
+      </c>
+      <c r="L21" s="1">
+        <f>L16+L18</f>
+        <v>0</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1669,19 +1540,16 @@
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <f>E21*(F17/12+1)</f>
-        <v>963672.83867037052</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <f>K21*(L17/12+1)</f>
+        <v>1057480.6676311088</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1693,12 +1561,12 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>30000</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>30000</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1714,33 +1582,45 @@
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="F24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K24" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L24" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1753,12 +1633,12 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>994614.38699779043</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>1057480.6676311088</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1768,40 +1648,58 @@
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1">
+        <f>0.015*C23</f>
+        <v>450</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:O26" si="27">0.015*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
-        <f>0.015*F23</f>
-        <v>450</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:L26" si="35">0.015*G23</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -1809,76 +1707,112 @@
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="1">
+        <f>(C28)*(C24/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27" si="28">(D28)*(D24/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27" si="29">(E28)*(E24/12)</f>
+        <v>244.89443117404517</v>
+      </c>
       <c r="G27" s="1">
-        <f>(F28)*(F24/12)</f>
-        <v>164.9375</v>
+        <f t="shared" ref="G27" si="30">(F28)*(F24/12)</f>
+        <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27" si="36">(G28)*(G24/12)</f>
-        <v>165.83091145833333</v>
+        <f t="shared" ref="H27" si="31">(G28)*(G24/12)</f>
+        <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27" si="37">(H28)*(H24/12)</f>
-        <v>166.72916222873263</v>
+        <f t="shared" ref="I27" si="32">(H28)*(H24/12)</f>
+        <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27" si="38">(I28)*(I24/12)</f>
-        <v>5635.9392937057401</v>
+        <f t="shared" ref="J27" si="33">(I28)*(I24/12)</f>
+        <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27" si="39">(J28)*(J24/12)</f>
-        <v>5666.4672982133125</v>
+        <f t="shared" ref="K27" si="34">(J28)*(J24/12)</f>
+        <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" ref="L27" si="40">(K28)*(K24/12)</f>
-        <v>5697.160662745302</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+        <f t="shared" ref="L27" si="35">(K28)*(K24/12)</f>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27" si="36">(L28)*(L24/12)</f>
+        <v>8756.0900490001313</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" ref="N27" si="37">(M28)*(M24/12)</f>
+        <v>8825.4090952213828</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27" si="38">(N28)*(N24/12)</f>
+        <v>8895.2769172252192</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1">
+        <f>C23+C26</f>
+        <v>30450</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28" si="39">C28+D27+D25*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28" si="40">D28+E27+E25*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
       <c r="F28" s="1">
-        <f>F23+F26</f>
-        <v>30450</v>
+        <f t="shared" ref="F28" si="41">E28+F27+F25*1.015</f>
+        <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28" si="41">F28+G27+G25*1.015</f>
-        <v>30614.9375</v>
+        <f t="shared" ref="G28" si="42">F28+G27+G25*1.015</f>
+        <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28" si="42">G28+H27+H25*1.015</f>
-        <v>30780.768411458332</v>
+        <f t="shared" ref="H28" si="43">G28+H27+H25*1.015</f>
+        <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28" si="43">H28+I27+I25*1.015</f>
-        <v>1040481.1003764443</v>
+        <f t="shared" ref="I28" si="44">H28+I27+I25*1.015</f>
+        <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28" si="44">I28+J27+J25*1.015</f>
-        <v>1046117.03967015</v>
+        <f t="shared" ref="J28" si="45">I28+J27+J25*1.015</f>
+        <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ref="K28" si="45">J28+K27+K25*1.015</f>
-        <v>1051783.5069683634</v>
+        <f t="shared" ref="K28" si="46">J28+K27+K25*1.015</f>
+        <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f>L23+L25</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+        <f t="shared" ref="L28" si="47">K28+L27+L25*1.015</f>
+        <v>1106032.4272421217</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ref="M28" si="48">L28+M27+M25*1.015</f>
+        <v>1114788.5172911219</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28" si="49">M28+N27+N25*1.015</f>
+        <v>1123613.9263863433</v>
+      </c>
+      <c r="O28" s="1">
+        <f>O23+O25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1894,13 +1828,13 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1">
-        <f>K28*(L24/12+1)</f>
-        <v>1057480.6676311088</v>
-      </c>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1">
+        <f>N28*(O24/12+1)</f>
+        <v>1132509.2033035685</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1909,133 +1843,42 @@
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2177,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="O44" s="4">
-        <f>O15</f>
+        <f>O29</f>
         <v>1132509.2033035685</v>
       </c>
     </row>

--- a/Olymp/Moscow/2014/answers/E/Вклады.xlsx
+++ b/Olymp/Moscow/2014/answers/E/Вклады.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="6 месяцев (пример)" sheetId="4" r:id="rId1"/>
-    <sheet name="12 месяцев" sheetId="3" r:id="rId2"/>
+    <sheet name="12 месяцев" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Лист1" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Лист1 (2)" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Лист3" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="12 месяцев " sheetId="7" r:id="rId7"/>
+    <sheet name="48 месяцев" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="15">
   <si>
     <t>Месяцы</t>
   </si>
@@ -73,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +93,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +120,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,21 +157,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="3" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,7 +481,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +582,7 @@
         <v>0.04</v>
       </c>
       <c r="I3" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -694,13 +730,13 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f>E7*(F3/12+1)</f>
+        <f>E7*(E3/12+1)</f>
         <v>30755.516127777781</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <f>H7*(I3/12+1)</f>
+        <f>H7*(H3/12+1)</f>
         <v>30755.516127777781</v>
       </c>
       <c r="J8" s="1"/>
@@ -757,7 +793,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I10" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -916,7 +952,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <f>H14*(I10/12+1)</f>
+        <f>H14*(H10/12+1)</f>
         <v>74170.002933943004</v>
       </c>
       <c r="J15" s="1"/>
@@ -951,7 +987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1082,15 +1120,15 @@
         <v>14100</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:F5" si="0">0.015*D2</f>
+        <f>0.015*D2</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*E2</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*F2</f>
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
@@ -1114,11 +1152,11 @@
         <v>3180.3333333333335</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6" si="1">(D7)*(D3/12)</f>
+        <f>(D7)*(D3/12)</f>
         <v>3190.9344444444446</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6" si="2">(E7)*(E3/12)</f>
+        <f>(E7)*(E3/12)</f>
         <v>3201.5708925925933</v>
       </c>
       <c r="G6" s="1"/>
@@ -1141,11 +1179,11 @@
         <v>954100</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7" si="3">C7+D6+D4*1.015</f>
+        <f>C7+D6+D4*1.015</f>
         <v>957280.33333333337</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="4">D7+E6+E4*1.015</f>
+        <f>D7+E6+E4*1.015</f>
         <v>960471.26777777786</v>
       </c>
       <c r="F7" s="1">
@@ -1254,27 +1292,27 @@
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:I12" si="5">0.015*D9</f>
+        <f>0.015*D9</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="5"/>
+        <f>0.015*E9</f>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="5"/>
+        <f>0.015*F9</f>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="5"/>
+        <f>0.015*G9</f>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="5"/>
+        <f>0.015*H9</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f>0.015*I9</f>
         <v>0</v>
       </c>
     </row>
@@ -1289,23 +1327,23 @@
         <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="6">(D14)*(D10/12)</f>
+        <f>(D14)*(D10/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="7">(E14)*(E10/12)</f>
+        <f>(E14)*(E10/12)</f>
         <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="8">(F14)*(F10/12)</f>
+        <f>(F14)*(F10/12)</f>
         <v>5300.8877394639485</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13" si="9">(G14)*(G10/12)</f>
+        <f>(G14)*(G10/12)</f>
         <v>5329.6008813860453</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13" si="10">(H14)*(H10/12)</f>
+        <f>(H14)*(H10/12)</f>
         <v>5358.4695528268867</v>
       </c>
     </row>
@@ -1319,23 +1357,23 @@
         <v>30450</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14" si="11">C14+D13+D11*1.015</f>
+        <f>C14+D13+D11*1.015</f>
         <v>30614.9375</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14" si="12">D14+E13+E11*1.015</f>
+        <f>D14+E13+E11*1.015</f>
         <v>30780.768411458332</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14" si="13">E14+F13+F11*1.015</f>
+        <f>E14+F13+F11*1.015</f>
         <v>978625.42882411357</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14" si="14">F14+G13+G11*1.015</f>
+        <f>F14+G13+G11*1.015</f>
         <v>983926.31656357751</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="15">G14+H13+H11*1.015</f>
+        <f>G14+H13+H11*1.015</f>
         <v>989255.91744496359</v>
       </c>
       <c r="I14" s="1">
@@ -1437,27 +1475,27 @@
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:L19" si="16">0.015*G16</f>
+        <f t="shared" ref="G19:L19" si="0">0.015*G16</f>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -1475,23 +1513,23 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20" si="17">(G21)*(G17/12)</f>
+        <f t="shared" ref="H20" si="1">(G21)*(G17/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20" si="18">(H21)*(H17/12)</f>
+        <f t="shared" ref="I20" si="2">(H21)*(H17/12)</f>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20" si="19">(I21)*(I17/12)</f>
+        <f t="shared" ref="J20" si="3">(I21)*(I17/12)</f>
         <v>5635.9392937057401</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20" si="20">(J21)*(J17/12)</f>
+        <f t="shared" ref="K20" si="4">(J21)*(J17/12)</f>
         <v>5666.4672982133125</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20" si="21">(K21)*(K17/12)</f>
+        <f t="shared" ref="L20" si="5">(K21)*(K17/12)</f>
         <v>5697.160662745302</v>
       </c>
       <c r="M20" s="1"/>
@@ -1508,23 +1546,23 @@
         <v>30450</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21" si="22">F21+G20+G18*1.015</f>
+        <f t="shared" ref="G21" si="6">F21+G20+G18*1.015</f>
         <v>30614.9375</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21" si="23">G21+H20+H18*1.015</f>
+        <f t="shared" ref="H21" si="7">G21+H20+H18*1.015</f>
         <v>30780.768411458332</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21" si="24">H21+I20+I18*1.015</f>
+        <f t="shared" ref="I21" si="8">H21+I20+I18*1.015</f>
         <v>1040481.1003764443</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ref="J21" si="25">I21+J20+J18*1.015</f>
+        <f t="shared" ref="J21" si="9">I21+J20+J18*1.015</f>
         <v>1046117.03967015</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21" si="26">J21+K20+K18*1.015</f>
+        <f t="shared" ref="K21" si="10">J21+K20+K18*1.015</f>
         <v>1051783.5069683634</v>
       </c>
       <c r="L21" s="1">
@@ -1653,51 +1691,51 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:O26" si="27">0.015*D23</f>
+        <f t="shared" ref="D26:O26" si="11">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1712,47 +1750,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27" si="28">(D28)*(D24/12)</f>
+        <f t="shared" ref="E27" si="12">(D28)*(D24/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27" si="29">(E28)*(E24/12)</f>
+        <f t="shared" ref="F27" si="13">(E28)*(E24/12)</f>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27" si="30">(F28)*(F24/12)</f>
+        <f t="shared" ref="G27" si="14">(F28)*(F24/12)</f>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27" si="31">(G28)*(G24/12)</f>
+        <f t="shared" ref="H27" si="15">(G28)*(G24/12)</f>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27" si="32">(H28)*(H24/12)</f>
+        <f t="shared" ref="I27" si="16">(H28)*(H24/12)</f>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27" si="33">(I28)*(I24/12)</f>
+        <f t="shared" ref="J27" si="17">(I28)*(I24/12)</f>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27" si="34">(J28)*(J24/12)</f>
+        <f t="shared" ref="K27" si="18">(J28)*(J24/12)</f>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" ref="L27" si="35">(K28)*(K24/12)</f>
+        <f t="shared" ref="L27" si="19">(K28)*(K24/12)</f>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ref="M27" si="36">(L28)*(L24/12)</f>
+        <f t="shared" ref="M27" si="20">(L28)*(L24/12)</f>
         <v>8756.0900490001313</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" ref="N27" si="37">(M28)*(M24/12)</f>
+        <f t="shared" ref="N27" si="21">(M28)*(M24/12)</f>
         <v>8825.4090952213828</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" ref="O27" si="38">(N28)*(N24/12)</f>
+        <f t="shared" ref="O27" si="22">(N28)*(N24/12)</f>
         <v>8895.2769172252192</v>
       </c>
     </row>
@@ -1766,47 +1804,47 @@
         <v>30450</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28" si="39">C28+D27+D25*1.015</f>
+        <f t="shared" ref="D28" si="23">C28+D27+D25*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28" si="40">D28+E27+E25*1.015</f>
+        <f t="shared" ref="E28" si="24">D28+E27+E25*1.015</f>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28" si="41">E28+F27+F25*1.015</f>
+        <f t="shared" ref="F28" si="25">E28+F27+F25*1.015</f>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28" si="42">F28+G27+G25*1.015</f>
+        <f t="shared" ref="G28" si="26">F28+G27+G25*1.015</f>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28" si="43">G28+H27+H25*1.015</f>
+        <f t="shared" ref="H28" si="27">G28+H27+H25*1.015</f>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28" si="44">H28+I27+I25*1.015</f>
+        <f t="shared" ref="I28" si="28">H28+I27+I25*1.015</f>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28" si="45">I28+J27+J25*1.015</f>
+        <f t="shared" ref="J28" si="29">I28+J27+J25*1.015</f>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ref="K28" si="46">J28+K27+K25*1.015</f>
+        <f t="shared" ref="K28" si="30">J28+K27+K25*1.015</f>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28" si="47">K28+L27+L25*1.015</f>
+        <f t="shared" ref="L28" si="31">K28+L27+L25*1.015</f>
         <v>1106032.4272421217</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28" si="48">L28+M27+M25*1.015</f>
+        <f t="shared" ref="M28" si="32">L28+M27+M25*1.015</f>
         <v>1114788.5172911219</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28" si="49">M28+N27+N25*1.015</f>
+        <f t="shared" ref="N28" si="33">M28+N27+N25*1.015</f>
         <v>1123613.9263863433</v>
       </c>
       <c r="O28" s="1">
@@ -4601,4 +4639,5044 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>940000</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.015*C2</f>
+        <v>14100</v>
+      </c>
+      <c r="D5" s="1">
+        <f>0.015*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f>0.015*E2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>0.015*F2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>(C7)*(C4/12)</f>
+        <v>3180.3333333333335</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:F6" si="0">(D7)*(D4/12)</f>
+        <v>3190.9344444444446</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>3201.5708925925933</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2+C5</f>
+        <v>954100</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7+D6+D3*1.015</f>
+        <v>957280.33333333337</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7+E6+E3*1.015</f>
+        <v>960471.26777777786</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F2+F3</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7">
+        <f>E7*(E4/12+1)</f>
+        <v>963672.83867037052</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7">
+        <f>963672.838670371 - 30000</f>
+        <v>933672.83867037098</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0.015*C9</f>
+        <v>450</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0.015*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f>0.015*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>0.015*F9</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f>0.015*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>0.015*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>0.015*I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>(C14)*(C11/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:I13" si="1">(D14)*(D11/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>5300.8877394639485</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>5329.6008813860453</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>5358.4695528268867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C9+C12</f>
+        <v>30450</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14+D13+D10*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14+E13+E10*1.015</f>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14+F13+F10*1.015</f>
+        <v>978625.42882411357</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14+G13+G10*1.015</f>
+        <v>983926.31656357751</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14+H13+H10*1.015</f>
+        <v>989255.91744496359</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I9+I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="7">
+        <f>H14*(H11/12+1)</f>
+        <v>994614.38699779043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="7">
+        <v>994614.38699779043</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <f>0.015*F16</f>
+        <v>450</v>
+      </c>
+      <c r="G19" s="1">
+        <f>0.015*G16</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>0.015*H16</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>0.015*I16</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f>0.015*J16</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f>0.015*K16</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>0.015*L16</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <f>(F21)*(F18/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:L20" si="2">(G21)*(G18/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>5635.9392937057401</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>5666.4672982133125</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>5697.160662745302</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F16+F19</f>
+        <v>30450</v>
+      </c>
+      <c r="G21" s="1">
+        <f>F21+G20+G17*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21+H20+H17*1.015</f>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="I21" s="1">
+        <f>H21+I20+I17*1.015</f>
+        <v>1040481.1003764443</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I21+J20+J17*1.015</f>
+        <v>1046117.03967015</v>
+      </c>
+      <c r="K21" s="1">
+        <f>J21+K20+K17*1.015</f>
+        <v>1051783.5069683634</v>
+      </c>
+      <c r="L21" s="1">
+        <f>L16+L17</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="7">
+        <f>K21*(K18/12+1)</f>
+        <v>1057480.6676311088</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="7">
+        <v>1057480.6676311088</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <f>0.015*C23</f>
+        <v>450</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:O26" si="3">0.015*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f>(C28)*(C25/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:O27" si="4">(D28)*(D25/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="4"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="4"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="4"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="4"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="4"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="4"/>
+        <v>8756.0900490001313</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="4"/>
+        <v>8825.4090952213828</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="4"/>
+        <v>8895.2769172252192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C23+C26</f>
+        <v>30450</v>
+      </c>
+      <c r="D28" s="1">
+        <f>C28+D27+D24*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28+E27+E24*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="F28" s="1">
+        <f>E28+F27+F24*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="G28" s="1">
+        <f>F28+G27+G24*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="H28" s="1">
+        <f>G28+H27+H24*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="I28" s="1">
+        <f>H28+I27+I24*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="J28" s="1">
+        <f>I28+J27+J24*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="K28" s="1">
+        <f>J28+K27+K24*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="L28" s="1">
+        <f>K28+L27+L24*1.015</f>
+        <v>1106032.4272421217</v>
+      </c>
+      <c r="M28" s="1">
+        <f>L28+M27+M24*1.015</f>
+        <v>1114788.5172911219</v>
+      </c>
+      <c r="N28" s="1">
+        <f>M28+N27+N24*1.015</f>
+        <v>1123613.9263863433</v>
+      </c>
+      <c r="O28" s="1">
+        <f>O23+O24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="7">
+        <f>N28*(N25/12+1)</f>
+        <v>1132509.2033035685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="6">
+        <f>O29</f>
+        <v>1132509.2033035685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="51" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <f>O1+1</f>
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" ref="Q1:AY1" si="0">P1+1</f>
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <f>AN1+1</f>
+        <v>38</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AV1">
+        <f>AU1+1</f>
+        <v>45</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>940000</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+    </row>
+    <row r="3" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6">
+        <f>O29 - 30000</f>
+        <v>1005987.1228898064</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="6">
+        <f>AA29 - 30000</f>
+        <v>1188415.1857452681</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="6">
+        <f>AM29 - 30000</f>
+        <v>1401254.2472751117</v>
+      </c>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AP4" s="2"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.015*C2</f>
+        <v>14100</v>
+      </c>
+      <c r="D5" s="1">
+        <f>0.015*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f>0.015*E2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>0.015*F2</f>
+        <v>450</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:R5" si="1">0.015*G2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <f>0.015*R2</f>
+        <v>450</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:AD5" si="2">0.015*S2</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>0.015*AD2</f>
+        <v>450</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5:AY5" si="3">0.015*AE2</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>(C7)*(C4/12)</f>
+        <v>3180.3333333333335</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:F6" si="4">(D7)*(D4/12)</f>
+        <v>3190.9344444444446</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="4"/>
+        <v>3201.5708925925933</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(F7)*(F4/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:R6" si="5">(G7)*(G4/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="5"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="5"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="5"/>
+        <v>8342.3179613601242</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="5"/>
+        <v>8408.3613118875583</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="5"/>
+        <v>8474.927505606669</v>
+      </c>
+      <c r="S6" s="1">
+        <f>(R7)*(R4/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:AD6" si="6">(S7)*(S4/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="6"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="6"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="6"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="6"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="6"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="6"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="6"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="6"/>
+        <v>9808.2034580966156</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="6"/>
+        <v>9885.8517354732139</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" ref="AD6:AN6" si="7">(AC7)*(AC4/12)</f>
+        <v>9964.1147283790433</v>
+      </c>
+      <c r="AE6" s="1">
+        <f>(AD7)*(AD4/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" ref="AF6:AY6" si="8">(AE7)*(AE4/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="8"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="8"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="8"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="8"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="8"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="8"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AN6" s="1">
+        <f t="shared" si="8"/>
+        <v>11518.454000431213</v>
+      </c>
+      <c r="AO6" s="1">
+        <f t="shared" si="8"/>
+        <v>11609.64176126796</v>
+      </c>
+      <c r="AP6" s="1">
+        <f t="shared" si="8"/>
+        <v>11701.551425211332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2+C5</f>
+        <v>954100</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7+D6+D3*1.015</f>
+        <v>957280.33333333337</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7+E6+E3*1.015</f>
+        <v>960471.26777777786</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F2+F5</f>
+        <v>30450</v>
+      </c>
+      <c r="G7" s="1">
+        <f>F7+G6+G3*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7+H6+H3*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7+I6+I3*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="J7" s="1">
+        <f>I7+J6+J3*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="K7" s="1">
+        <f>J7+K6+K3*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="L7" s="1">
+        <f>K7+L6+L3*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="M7" s="1">
+        <f>L7+M6+M3*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7+N6+N3*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="O7" s="1">
+        <f>N7+O6+O3*1.015</f>
+        <v>1053766.4793296999</v>
+      </c>
+      <c r="P7" s="1">
+        <f>O7+P6+P3*1.015</f>
+        <v>1062108.79729106</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>P7+Q6+Q3*1.015</f>
+        <v>1070517.1586029476</v>
+      </c>
+      <c r="R7" s="1">
+        <f>R2+R5</f>
+        <v>30450</v>
+      </c>
+      <c r="S7" s="1">
+        <f>R7+S6+S3*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="T7" s="1">
+        <f>S7+T6+T3*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="U7" s="1">
+        <f>T7+U6+U3*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="V7" s="1">
+        <f>U7+V6+V3*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="W7" s="1">
+        <f>V7+W6+W3*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="X7" s="1">
+        <f>W7+X6+X3*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>X7+Y6+Y3*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>Y7+Z6+Z3*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>Z7+AA6+AA3*1.015</f>
+        <v>1238930.9631279935</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>AA7+AB6+AB3*1.015</f>
+        <v>1248739.1665860901</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>AB7+AC6+AC3*1.015</f>
+        <v>1258625.0183215633</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>AD2+AD5</f>
+        <v>30450</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>AD7+AE6+AE3*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>AE7+AF6+AF3*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>AF7+AG6+AG3*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="AH7" s="1">
+        <f>AG7+AH6+AH3*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>AH7+AI6+AI3*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f>AI7+AJ6+AJ3*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AK7" s="1">
+        <f>AJ7+AK6+AK3*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AL7" s="1">
+        <f>AK7+AL6+AL3*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AM7" s="1">
+        <f>AL7+AM6+AM3*1.015</f>
+        <v>1454962.6105807847</v>
+      </c>
+      <c r="AN7" s="1">
+        <f>AM7+AN6+AN3*1.015</f>
+        <v>1466481.0645812158</v>
+      </c>
+      <c r="AO7" s="1">
+        <f>AN7+AO6+AO3*1.015</f>
+        <v>1478090.7063424839</v>
+      </c>
+      <c r="AP7" s="1">
+        <f>AP2+AP3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8">
+        <f>E7*(E4/12+1)</f>
+        <v>963672.83867037052</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="8">
+        <f>Q7*(Q4/12+1)</f>
+        <v>1078992.0861085542</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="8">
+        <f>AC7*(AC4/12+1)</f>
+        <v>1268589.1330499421</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="8">
+        <f>AO7*(AO4/12+1)</f>
+        <v>1489792.257767695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+    </row>
+    <row r="10" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6">
+        <f>963672.838670371 - 30000 - 30000</f>
+        <v>903672.83867037098</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="6">
+        <f>R8 - 30000</f>
+        <v>1048992.0861085542</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="6">
+        <f>AD8 - 30000</f>
+        <v>1238589.1330499421</v>
+      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="6">
+        <f>AP8</f>
+        <v>1489792.257767695</v>
+      </c>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AS11" s="2"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0.015*C9</f>
+        <v>450</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0.015*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f>0.015*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>0.015*F9</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f>0.015*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>0.015*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>0.015*I9</f>
+        <v>450</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:U12" si="9">0.015*J9</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <f>0.015*U9</f>
+        <v>450</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" ref="V12:AG12" si="10">0.015*V9</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" ref="AD12:AQ12" si="11">0.015*AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>0.015*AG9</f>
+        <v>450</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" ref="AH12:AY12" si="12">0.015*AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>(C14)*(C11/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:I13" si="13">(D14)*(D11/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="13"/>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="13"/>
+        <v>5135.9502394639485</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="13"/>
+        <v>5163.7699699277118</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="13"/>
+        <v>5191.7403905981537</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(I14)*(I11/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13:U13" si="14">(J14)*(J11/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="14"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="14"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="14"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="14"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="14"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="14"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="14"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="14"/>
+        <v>8687.8807595574362</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="14"/>
+        <v>8756.6598155705997</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="14"/>
+        <v>8825.9833724438668</v>
+      </c>
+      <c r="V13" s="1">
+        <f>(U14)*(U11/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13:AG13" si="15">(V14)*(V11/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="15"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="15"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="15"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="15"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="15"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="15"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" ref="AD13:AQ13" si="16">(AC14)*(AC11/12)</f>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="16"/>
+        <v>10211.372030501048</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="16"/>
+        <v>10292.212059075848</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="16"/>
+        <v>10373.6920712102</v>
+      </c>
+      <c r="AH13" s="1">
+        <f>(AG14)*(AG11/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" ref="AI13:AY13" si="17">(AH14)*(AH11/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="17"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="17"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="AL13" s="1">
+        <f t="shared" si="17"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AM13" s="1">
+        <f t="shared" si="17"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AN13" s="1">
+        <f t="shared" si="17"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AO13" s="1">
+        <f t="shared" si="17"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AP13" s="1">
+        <f t="shared" si="17"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="17"/>
+        <v>12229.893805576825</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="17"/>
+        <v>12326.713798204308</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="17"/>
+        <v>12424.30028244009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C9+C12</f>
+        <v>30450</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14+D13+D10*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14+E13+E10*1.015</f>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14+F13+F10*1.015</f>
+        <v>948175.42882411357</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14+G13+G10*1.015</f>
+        <v>953311.37906357751</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14+H13+H10*1.015</f>
+        <v>958475.14903350524</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I9+I12</f>
+        <v>30450</v>
+      </c>
+      <c r="J14" s="1">
+        <f>I14+J13+J10*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="K14" s="1">
+        <f>J14+K13+K10*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="L14" s="1">
+        <f>K14+L13+L10*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="M14" s="1">
+        <f>L14+M13+M10*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="N14" s="1">
+        <f>M14+N13+N10*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="O14" s="1">
+        <f>N14+O13+O10*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="P14" s="1">
+        <f>O14+P13+P10*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>P14+Q13+Q10*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="R14" s="1">
+        <f>Q14+R13+R10*1.015</f>
+        <v>1097416.5169967287</v>
+      </c>
+      <c r="S14" s="1">
+        <f>R14+S13+S10*1.015</f>
+        <v>1106104.3977562862</v>
+      </c>
+      <c r="T14" s="1">
+        <f>S14+T13+T10*1.015</f>
+        <v>1114861.0575718568</v>
+      </c>
+      <c r="U14" s="1">
+        <f>U9+U12</f>
+        <v>30450</v>
+      </c>
+      <c r="V14" s="1">
+        <f>U14+V13+V10*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="W14" s="1">
+        <f>V14+W13+W10*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="X14" s="1">
+        <f>W14+X13+X10*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>X14+Y13+Y10*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>Y14+Z13+Z10*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>Z14+AA13+AA10*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>AA14+AB13+AB10*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>AB14+AC13+AC10*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>AC14+AD13+AD10*1.015</f>
+        <v>1289857.5196422376</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>AD14+AE13+AE10*1.015</f>
+        <v>1300068.8916727386</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>AE14+AF13+AF10*1.015</f>
+        <v>1310361.1037318145</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>AG9+AG12</f>
+        <v>30450</v>
+      </c>
+      <c r="AH14" s="1">
+        <f>AG14+AH13+AH10*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="AI14" s="1">
+        <f>AH14+AI13+AI10*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f>AI14+AJ13+AJ10*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="AK14" s="1">
+        <f>AJ14+AK13+AK10*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="AL14" s="1">
+        <f>AK14+AL13+AL10*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AM14" s="1">
+        <f>AL14+AM13+AM10*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AN14" s="1">
+        <f>AM14+AN13+AN10*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AO14" s="1">
+        <f>AN14+AO13+AO10*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AP14" s="1">
+        <f>AO14+AP13+AP10*1.015</f>
+        <v>1544828.6912307567</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f>AP14+AQ13+AQ10*1.015</f>
+        <v>1557058.5850363334</v>
+      </c>
+      <c r="AR14" s="1">
+        <f>AQ14+AR13+AR10*1.015</f>
+        <v>1569385.2988345376</v>
+      </c>
+      <c r="AS14" s="1">
+        <f>AS9+AS10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="8">
+        <f>H14*(H11/12+1)</f>
+        <v>963666.88942410331</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="8">
+        <f>T14*(T11/12+1)</f>
+        <v>1123687.0409443006</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="8">
+        <f>AF14*(AF11/12+1)</f>
+        <v>1320734.7958030247</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="8">
+        <f>AR14*(AR11/12+1)</f>
+        <v>1581809.5991169775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4">
+        <v>30000</v>
+      </c>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+    </row>
+    <row r="17" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6">
+        <f>I15 - 30000</f>
+        <v>933666.88942410331</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="6">
+        <f>U15 - 30000</f>
+        <v>1093687.0409443006</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="6">
+        <f>AG15 - 30000</f>
+        <v>1290734.7958030247</v>
+      </c>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="6">
+        <f>AS15</f>
+        <v>1581809.5991169775</v>
+      </c>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="T18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AV18" s="2"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <f>0.015*F16</f>
+        <v>450</v>
+      </c>
+      <c r="G19" s="1">
+        <f>0.015*G16</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>0.015*H16</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>0.015*I16</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f>0.015*J16</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f>0.015*K16</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>0.015*L16</f>
+        <v>450</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ref="M19:X19" si="18">0.015*M16</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <f>0.015*X16</f>
+        <v>450</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" ref="Y19:AJ19" si="19">0.015*Y16</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" ref="AD19:AT19" si="20">0.015*AD16</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f>0.015*AJ16</f>
+        <v>450</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" ref="AK19:AY19" si="21">0.015*AK16</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <f>(F21)*(F18/12)</f>
+        <v>164.9375</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:L20" si="22">(G21)*(G18/12)</f>
+        <v>165.83091145833333</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="22"/>
+        <v>166.72916222873263</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="22"/>
+        <v>5300.855031003739</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="22"/>
+        <v>5329.5679957550092</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="22"/>
+        <v>5358.4364890653487</v>
+      </c>
+      <c r="M20" s="1">
+        <f>(L21)*(L18/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:X20" si="23">(M21)*(M18/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="23"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="23"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="23"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="23"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="23"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="23"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="23"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="23"/>
+        <v>9047.0233445605081</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="23"/>
+        <v>9118.6456127049441</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="23"/>
+        <v>9190.8348904721934</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>(X21)*(X18/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" ref="Z20:AJ20" si="24">(Y21)*(Y18/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="24"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="24"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="24"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" ref="AD20:AT20" si="25">(AC21)*(AC18/12)</f>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="25"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="25"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="25"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AH20" s="1">
+        <f t="shared" si="25"/>
+        <v>10630.384158081548</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="25"/>
+        <v>10714.541365999694</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="25"/>
+        <v>10799.364818480524</v>
+      </c>
+      <c r="AK20" s="1">
+        <f>(AJ21)*(AJ18/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="AL20" s="1">
+        <f t="shared" ref="AL20:AY20" si="26">(AK21)*(AK18/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="AM20" s="1">
+        <f t="shared" si="26"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="AN20" s="1">
+        <f t="shared" si="26"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="AO20" s="1">
+        <f t="shared" si="26"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AP20" s="1">
+        <f t="shared" si="26"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AQ20" s="1">
+        <f t="shared" si="26"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AR20" s="1">
+        <f t="shared" si="26"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AS20" s="1">
+        <f t="shared" si="26"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AT20" s="1">
+        <f t="shared" si="26"/>
+        <v>12969.291483877207</v>
+      </c>
+      <c r="AU20" s="1">
+        <f t="shared" si="26"/>
+        <v>13071.965041457901</v>
+      </c>
+      <c r="AV20" s="1">
+        <f t="shared" si="26"/>
+        <v>13175.451431369444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F16+F19</f>
+        <v>30450</v>
+      </c>
+      <c r="G21" s="1">
+        <f>F21+G20+G17*1.015</f>
+        <v>30614.9375</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21+H20+H17*1.015</f>
+        <v>30780.768411458332</v>
+      </c>
+      <c r="I21" s="1">
+        <f>H21+I20+I17*1.015</f>
+        <v>978619.39033915184</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I21+J20+J17*1.015</f>
+        <v>983920.24537015555</v>
+      </c>
+      <c r="K21" s="1">
+        <f>J21+K20+K17*1.015</f>
+        <v>989249.81336591055</v>
+      </c>
+      <c r="L21" s="1">
+        <f>L16+L19</f>
+        <v>30450</v>
+      </c>
+      <c r="M21" s="1">
+        <f>L21+M20+M17*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="N21" s="1">
+        <f>M21+N20+N17*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="O21" s="1">
+        <f>N21+O20+O17*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="P21" s="1">
+        <f>O21+P20+P17*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>P21+Q20+Q17*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="R21" s="1">
+        <f>Q21+R20+R17*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="S21" s="1">
+        <f>R21+S20+S17*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="T21" s="1">
+        <f>S21+T20+T17*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="U21" s="1">
+        <f>T21+U20+U17*1.015</f>
+        <v>1142781.8961550114</v>
+      </c>
+      <c r="V21" s="1">
+        <f>U21+V20+V17*1.015</f>
+        <v>1151828.9194995719</v>
+      </c>
+      <c r="W21" s="1">
+        <f>V21+W20+W17*1.015</f>
+        <v>1160947.5651122769</v>
+      </c>
+      <c r="X21" s="1">
+        <f>X16+X19</f>
+        <v>30450</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>X21+Y20+Y17*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>Y21+Z20+Z17*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>Z21+AA20+AA17*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>AA21+AB20+AB17*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>AB21+AC20+AC17*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AD21" s="1">
+        <f>AC21+AD20+AD17*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>AD21+AE20+AE17*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AF21" s="1">
+        <f>AE21+AF20+AF17*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AG21" s="1">
+        <f>AF21+AG20+AG17*1.015</f>
+        <v>1342785.3673366164</v>
+      </c>
+      <c r="AH21" s="1">
+        <f>AG21+AH20+AH17*1.015</f>
+        <v>1353415.751494698</v>
+      </c>
+      <c r="AI21" s="1">
+        <f>AH21+AI20+AI17*1.015</f>
+        <v>1364130.2928606977</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f>AJ16+AJ19</f>
+        <v>30450</v>
+      </c>
+      <c r="AK21" s="1">
+        <f>AJ21+AK20+AK17*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="AL21" s="1">
+        <f>AK21+AL20+AL17*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="AM21" s="1">
+        <f>AL21+AM20+AM17*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="AN21" s="1">
+        <f>AM21+AN20+AN17*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="AO21" s="1">
+        <f>AN21+AO20+AO17*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AP21" s="1">
+        <f>AO21+AP20+AP17*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AQ21" s="1">
+        <f>AP21+AQ20+AQ17*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AR21" s="1">
+        <f>AQ21+AR20+AR17*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AS21" s="1">
+        <f>AR21+AS20+AS17*1.015</f>
+        <v>1638226.2927002786</v>
+      </c>
+      <c r="AT21" s="1">
+        <f>AS21+AT20+AT17*1.015</f>
+        <v>1651195.5841841558</v>
+      </c>
+      <c r="AU21" s="1">
+        <f>AT21+AU20+AU17*1.015</f>
+        <v>1664267.5492256137</v>
+      </c>
+      <c r="AV21" s="1">
+        <f>AV16+AV17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="8">
+        <f>K21*(K18/12+1)</f>
+        <v>994608.24985497585</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="8">
+        <f>W21*(W18/12+1)</f>
+        <v>1170138.4000027489</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="8">
+        <f>AI21*(AI18/12+1)</f>
+        <v>1374929.6576791781</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="8">
+        <f>AU21*(AU18/12+1)</f>
+        <v>1677443.0006569829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+    </row>
+    <row r="24" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6">
+        <f>L22 - 30000</f>
+        <v>964608.24985497585</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="6">
+        <f>X22 - 30000</f>
+        <v>1140138.4000027489</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="6">
+        <f>AJ22 - 30000</f>
+        <v>1344929.6576791781</v>
+      </c>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="6">
+        <f>AV22</f>
+        <v>1677443.0006569829</v>
+      </c>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AY25" s="2"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <f>0.015*C23</f>
+        <v>450</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:O26" si="27">0.015*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f>0.015*O23</f>
+        <v>450</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" ref="P26:AA26" si="28">0.015*P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>0.015*AA23</f>
+        <v>450</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" ref="AB26:AM26" si="29">0.015*AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" ref="AD26:AW26" si="30">0.015*AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <f>0.015*AM23</f>
+        <v>450</v>
+      </c>
+      <c r="AN26" s="1">
+        <f t="shared" ref="AN26:AY26" si="31">0.015*AN23</f>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f>(C28)*(C25/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:O27" si="32">(D28)*(D25/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="32"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="32"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="32"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="32"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="32"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="32"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="32"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="32"/>
+        <v>8009.8214753281627</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="32"/>
+        <v>8073.2325620078436</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="32"/>
+        <v>8137.1456531237391</v>
+      </c>
+      <c r="P27" s="1">
+        <f>(O28)*(O25/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" ref="Q27:AA27" si="33">(P28)*(P25/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="33"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="33"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="33"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="33"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="33"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="33"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="33"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="33"/>
+        <v>9420.2793693280819</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="33"/>
+        <v>9494.85658100193</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="33"/>
+        <v>9570.0241956015288</v>
+      </c>
+      <c r="AB27" s="1">
+        <f>(AA28)*(AA25/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" ref="AC27:AM27" si="34">(AB28)*(AB25/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" ref="AD27:AW27" si="35">(AC28)*(AC25/12)</f>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="35"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="35"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="35"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AH27" s="1">
+        <f t="shared" si="35"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" si="35"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="35"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="35"/>
+        <v>11065.862454448888</v>
+      </c>
+      <c r="AL27" s="1">
+        <f t="shared" si="35"/>
+        <v>11153.467198879942</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="35"/>
+        <v>11241.765480871074</v>
+      </c>
+      <c r="AN27" s="1">
+        <f>(AM28)*(AM25/12)</f>
+        <v>241.06250000000003</v>
+      </c>
+      <c r="AO27" s="1">
+        <f t="shared" ref="AO27:AY27" si="36">(AN28)*(AN25/12)</f>
+        <v>242.97091145833335</v>
+      </c>
+      <c r="AP27" s="1">
+        <f t="shared" si="36"/>
+        <v>244.89443117404517</v>
+      </c>
+      <c r="AQ27" s="1">
+        <f t="shared" si="36"/>
+        <v>246.83317875417302</v>
+      </c>
+      <c r="AR27" s="1">
+        <f t="shared" si="36"/>
+        <v>248.78727475264355</v>
+      </c>
+      <c r="AS27" s="1">
+        <f t="shared" si="36"/>
+        <v>250.75684067776868</v>
+      </c>
+      <c r="AT27" s="1">
+        <f t="shared" si="36"/>
+        <v>252.74199899980098</v>
+      </c>
+      <c r="AU27" s="1">
+        <f t="shared" si="36"/>
+        <v>254.74287315854943</v>
+      </c>
+      <c r="AV27" s="1">
+        <f t="shared" si="36"/>
+        <v>256.75958757105462</v>
+      </c>
+      <c r="AW27" s="1">
+        <f t="shared" si="36"/>
+        <v>13737.74571250179</v>
+      </c>
+      <c r="AX27" s="1">
+        <f t="shared" si="36"/>
+        <v>13846.502866059096</v>
+      </c>
+      <c r="AY27" s="1">
+        <f t="shared" si="36"/>
+        <v>13956.121013748731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C23+C26</f>
+        <v>30450</v>
+      </c>
+      <c r="D28" s="1">
+        <f>C28+D27+D24*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28+E27+E24*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="F28" s="1">
+        <f>E28+F27+F24*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="G28" s="1">
+        <f>F28+G27+G24*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="H28" s="1">
+        <f>G28+H27+H24*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="I28" s="1">
+        <f>H28+I27+I24*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="J28" s="1">
+        <f>I28+J27+J24*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="K28" s="1">
+        <f>J28+K27+K24*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="L28" s="1">
+        <f>K28+L27+L24*1.015</f>
+        <v>1011766.9231993468</v>
+      </c>
+      <c r="M28" s="1">
+        <f>L28+M27+M24*1.015</f>
+        <v>1019776.7446746749</v>
+      </c>
+      <c r="N28" s="1">
+        <f>M28+N27+N24*1.015</f>
+        <v>1027849.9772366828</v>
+      </c>
+      <c r="O28" s="1">
+        <f>O23+O26</f>
+        <v>30450</v>
+      </c>
+      <c r="P28" s="1">
+        <f>O28+P27+P24*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>P28+Q27+Q24*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="R28" s="1">
+        <f>Q28+R27+R24*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="S28" s="1">
+        <f>R28+S27+S24*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="T28" s="1">
+        <f>S28+T27+T24*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="U28" s="1">
+        <f>T28+U27+U24*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="V28" s="1">
+        <f>U28+V27+V24*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="W28" s="1">
+        <f>V28+W27+W24*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="X28" s="1">
+        <f>W28+X27+X24*1.015</f>
+        <v>1189930.0255993365</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>X28+Y27+Y24*1.015</f>
+        <v>1199350.3049686647</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>Y28+Z27+Z24*1.015</f>
+        <v>1208845.1615496667</v>
+      </c>
+      <c r="AA28" s="1">
+        <f>AA23+AA26</f>
+        <v>30450</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>AA28+AB27+AB24*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>AB28+AC27+AC24*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="AD28" s="1">
+        <f>AC28+AD27+AD24*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>AD28+AE27+AE24*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="AF28" s="1">
+        <f>AE28+AF27+AF24*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>AF28+AG27+AG24*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AH28" s="1">
+        <f>AG28+AH27+AH24*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AI28" s="1">
+        <f>AH28+AI27+AI24*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>AI28+AJ27+AJ24*1.015</f>
+        <v>1397793.1521409121</v>
+      </c>
+      <c r="AK28" s="1">
+        <f>AJ28+AK27+AK24*1.015</f>
+        <v>1408859.014595361</v>
+      </c>
+      <c r="AL28" s="1">
+        <f>AK28+AL27+AL24*1.015</f>
+        <v>1420012.4817942409</v>
+      </c>
+      <c r="AM28" s="1">
+        <f>AM23+AM26</f>
+        <v>30450</v>
+      </c>
+      <c r="AN28" s="1">
+        <f>AM28+AN27+AN24*1.015</f>
+        <v>30691.0625</v>
+      </c>
+      <c r="AO28" s="1">
+        <f>AN28+AO27+AO24*1.015</f>
+        <v>30934.033411458335</v>
+      </c>
+      <c r="AP28" s="1">
+        <f>AO28+AP27+AP24*1.015</f>
+        <v>31178.92784263238</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f>AP28+AQ27+AQ24*1.015</f>
+        <v>31425.761021386552</v>
+      </c>
+      <c r="AR28" s="1">
+        <f>AQ28+AR27+AR24*1.015</f>
+        <v>31674.548296139197</v>
+      </c>
+      <c r="AS28" s="1">
+        <f>AR28+AS27+AS24*1.015</f>
+        <v>31925.305136816965</v>
+      </c>
+      <c r="AT28" s="1">
+        <f>AS28+AT27+AT24*1.015</f>
+        <v>32178.047135816767</v>
+      </c>
+      <c r="AU28" s="1">
+        <f>AT28+AU27+AU24*1.015</f>
+        <v>32432.790008975317</v>
+      </c>
+      <c r="AV28" s="1">
+        <f>AU28+AV27+AV24*1.015</f>
+        <v>1735294.1952633839</v>
+      </c>
+      <c r="AW28" s="1">
+        <f>AV28+AW27+AW24*1.015</f>
+        <v>1749031.9409758856</v>
+      </c>
+      <c r="AX28" s="1">
+        <f>AW28+AX27+AX24*1.015</f>
+        <v>1762878.4438419447</v>
+      </c>
+      <c r="AY28" s="1">
+        <f>AY23+AY24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="8">
+        <f>N28*(N25/12+1)</f>
+        <v>1035987.1228898064</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="8">
+        <f>Z28*(Z25/12+1)</f>
+        <v>1218415.1857452681</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="8">
+        <f>AL28*(AL25/12+1)</f>
+        <v>1431254.2472751117</v>
+      </c>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="8">
+        <f>AX28*(AX25/12+1)</f>
+        <v>1776834.5648556931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="AY44" s="6">
+        <v>1776834.5648556931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Olymp/Moscow/2014/answers/E/Вклады.xlsx
+++ b/Olymp/Moscow/2014/answers/E/Вклады.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="6 месяцев (пример)" sheetId="4" r:id="rId1"/>
@@ -103,7 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -129,7 +129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -172,13 +172,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="3" builtinId="27"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,12 +541,12 @@
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>30000</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>30000</v>
       </c>
       <c r="G2" s="4"/>
@@ -559,50 +559,50 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>0.04</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>0.04</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>0.04</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>0.04</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>0.04</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>0.04</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -614,27 +614,27 @@
         <v>450</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:I5" si="0">0.015*D2</f>
+        <f>0.015*D2</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*E2</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*F2</f>
         <v>450</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*G2</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*H2</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
+        <f>0.015*I2</f>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
@@ -651,27 +651,27 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>(C7)*(C3/12)</f>
+        <f>(C7)*(C4/12)</f>
         <v>101.5</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:I6" si="1">(D7)*(D3/12)</f>
+        <f>(D7)*(D4/12)</f>
         <v>101.83833333333334</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>(E7)*(E4/12)</f>
         <v>102.17779444444444</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f>(F7)*(F4/12)</f>
         <v>101.5</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f>(G7)*(G4/12)</f>
         <v>101.83833333333334</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f>(H7)*(H4/12)</f>
         <v>102.17779444444444</v>
       </c>
       <c r="J6" s="1"/>
@@ -691,11 +691,11 @@
         <v>30450</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:H7" si="2">C7+D6+D4*1.015</f>
+        <f>C7+D6+D3*1.015</f>
         <v>30551.5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E7" si="0">D7+E6+E3*1.015</f>
         <v>30653.338333333333</v>
       </c>
       <c r="F7" s="1">
@@ -703,11 +703,11 @@
         <v>30450</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f>F7+G6+G3*1.015</f>
         <v>30551.5</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H7" si="1">G7+H6+H3*1.015</f>
         <v>30653.338333333333</v>
       </c>
       <c r="I7" s="1">
@@ -729,14 +729,14 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <f>E7*(E3/12+1)</f>
+      <c r="F8" s="9">
+        <f>E7*(E4/12+1)</f>
         <v>30755.516127777781</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <f>H7*(H3/12+1)</f>
+      <c r="I8" s="9">
+        <f>H7*(H4/12+1)</f>
         <v>30755.516127777781</v>
       </c>
       <c r="J8" s="1"/>
@@ -753,7 +753,7 @@
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>70000</v>
       </c>
       <c r="D9" s="4"/>
@@ -771,30 +771,18 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7">
+        <v>755.52</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -804,18 +792,30 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>755.52</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -833,27 +833,27 @@
         <v>1050</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:I12" si="3">0.015*D9</f>
+        <f>0.015*D9</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="3"/>
+        <f>0.015*E9</f>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>0.015*F10</f>
+        <v>11.332799999999999</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
+        <f>0.015*G9</f>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f>0.015*H9</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
+        <f>0.015*I9</f>
         <v>0</v>
       </c>
       <c r="J12" s="1"/>
@@ -870,27 +870,27 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f>(C14)*(C10/12)</f>
+        <f>(C14)*(C11/12)</f>
         <v>384.85416666666669</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:I13" si="4">(D14)*(D10/12)</f>
+        <f>(D14)*(D11/12)</f>
         <v>386.93879340277783</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="4"/>
+        <f>(E14)*(E11/12)</f>
         <v>389.03471186704286</v>
       </c>
       <c r="G13" s="1">
-        <f>(F14)*(F10/12)</f>
+        <f>(F14)*(F11/12)</f>
         <v>395.29576922298935</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="4"/>
+        <f>(G14)*(G11/12)</f>
         <v>397.43695463961382</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
+        <f>(H14)*(H11/12)</f>
         <v>399.58973814391175</v>
       </c>
       <c r="J13" s="1"/>
@@ -910,23 +910,23 @@
         <v>71050</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:E14" si="5">C14+D13+D11*1.015</f>
+        <f t="shared" ref="D14:E14" si="2">C14+D13+D10*1.015</f>
         <v>71434.854166666672</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>71821.792960069448</v>
       </c>
       <c r="F14" s="1">
-        <f>E14+F13+F11*1.015</f>
+        <f>E14+F13+F10*1.015</f>
         <v>72977.680471936488</v>
       </c>
       <c r="G14" s="1">
-        <f>F14+G13+G11*1.015</f>
+        <f>F14+G13+G10*1.015</f>
         <v>73372.976241159471</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="6">G14+H13+H11*1.015</f>
+        <f t="shared" ref="H14" si="3">G14+H13+H10*1.015</f>
         <v>73770.41319579909</v>
       </c>
       <c r="I14" s="1">
@@ -951,8 +951,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <f>H14*(H10/12+1)</f>
+      <c r="I15" s="9">
+        <f>H14*(H11/12+1)</f>
         <v>74170.002933943004</v>
       </c>
       <c r="J15" s="1"/>
@@ -973,7 +973,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="I16" s="6">
         <f>I8+I15</f>
         <v>104925.51906172078</v>
       </c>
@@ -1288,31 +1288,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f>0.015*C9</f>
+        <f t="shared" ref="C12:I12" si="0">0.015*C9</f>
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f>0.015*D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>0.015*E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>0.015*F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f>0.015*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>0.015*H9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>0.015*I9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1323,27 +1323,27 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f>(C14)*(C10/12)</f>
+        <f t="shared" ref="D13:I13" si="1">(C14)*(C10/12)</f>
         <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f>(D14)*(D10/12)</f>
+        <f t="shared" si="1"/>
         <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f>(E14)*(E10/12)</f>
+        <f t="shared" si="1"/>
         <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f>(F14)*(F10/12)</f>
+        <f t="shared" si="1"/>
         <v>5300.8877394639485</v>
       </c>
       <c r="H13" s="1">
-        <f>(G14)*(G10/12)</f>
+        <f t="shared" si="1"/>
         <v>5329.6008813860453</v>
       </c>
       <c r="I13" s="1">
-        <f>(H14)*(H10/12)</f>
+        <f t="shared" si="1"/>
         <v>5358.4695528268867</v>
       </c>
     </row>
@@ -1475,27 +1475,27 @@
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:L19" si="0">0.015*G16</f>
+        <f t="shared" ref="G19:L19" si="2">0.015*G16</f>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -1513,23 +1513,23 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20" si="1">(G21)*(G17/12)</f>
+        <f t="shared" ref="H20" si="3">(G21)*(G17/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20" si="2">(H21)*(H17/12)</f>
+        <f t="shared" ref="I20" si="4">(H21)*(H17/12)</f>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20" si="3">(I21)*(I17/12)</f>
+        <f t="shared" ref="J20" si="5">(I21)*(I17/12)</f>
         <v>5635.9392937057401</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20" si="4">(J21)*(J17/12)</f>
+        <f t="shared" ref="K20" si="6">(J21)*(J17/12)</f>
         <v>5666.4672982133125</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20" si="5">(K21)*(K17/12)</f>
+        <f t="shared" ref="L20" si="7">(K21)*(K17/12)</f>
         <v>5697.160662745302</v>
       </c>
       <c r="M20" s="1"/>
@@ -1546,23 +1546,23 @@
         <v>30450</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21" si="6">F21+G20+G18*1.015</f>
+        <f t="shared" ref="G21" si="8">F21+G20+G18*1.015</f>
         <v>30614.9375</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21" si="7">G21+H20+H18*1.015</f>
+        <f t="shared" ref="H21" si="9">G21+H20+H18*1.015</f>
         <v>30780.768411458332</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21" si="8">H21+I20+I18*1.015</f>
+        <f t="shared" ref="I21" si="10">H21+I20+I18*1.015</f>
         <v>1040481.1003764443</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ref="J21" si="9">I21+J20+J18*1.015</f>
+        <f t="shared" ref="J21" si="11">I21+J20+J18*1.015</f>
         <v>1046117.03967015</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21" si="10">J21+K20+K18*1.015</f>
+        <f t="shared" ref="K21" si="12">J21+K20+K18*1.015</f>
         <v>1051783.5069683634</v>
       </c>
       <c r="L21" s="1">
@@ -1691,51 +1691,51 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:O26" si="11">0.015*D23</f>
+        <f t="shared" ref="D26:O26" si="13">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1750,47 +1750,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27" si="12">(D28)*(D24/12)</f>
+        <f t="shared" ref="E27" si="14">(D28)*(D24/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27" si="13">(E28)*(E24/12)</f>
+        <f t="shared" ref="F27" si="15">(E28)*(E24/12)</f>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27" si="14">(F28)*(F24/12)</f>
+        <f t="shared" ref="G27" si="16">(F28)*(F24/12)</f>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27" si="15">(G28)*(G24/12)</f>
+        <f t="shared" ref="H27" si="17">(G28)*(G24/12)</f>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27" si="16">(H28)*(H24/12)</f>
+        <f t="shared" ref="I27" si="18">(H28)*(H24/12)</f>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27" si="17">(I28)*(I24/12)</f>
+        <f t="shared" ref="J27" si="19">(I28)*(I24/12)</f>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27" si="18">(J28)*(J24/12)</f>
+        <f t="shared" ref="K27" si="20">(J28)*(J24/12)</f>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" ref="L27" si="19">(K28)*(K24/12)</f>
+        <f t="shared" ref="L27" si="21">(K28)*(K24/12)</f>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ref="M27" si="20">(L28)*(L24/12)</f>
+        <f t="shared" ref="M27" si="22">(L28)*(L24/12)</f>
         <v>8756.0900490001313</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" ref="N27" si="21">(M28)*(M24/12)</f>
+        <f t="shared" ref="N27" si="23">(M28)*(M24/12)</f>
         <v>8825.4090952213828</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" ref="O27" si="22">(N28)*(N24/12)</f>
+        <f t="shared" ref="O27" si="24">(N28)*(N24/12)</f>
         <v>8895.2769172252192</v>
       </c>
     </row>
@@ -1804,47 +1804,47 @@
         <v>30450</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28" si="23">C28+D27+D25*1.015</f>
+        <f t="shared" ref="D28" si="25">C28+D27+D25*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28" si="24">D28+E27+E25*1.015</f>
+        <f t="shared" ref="E28" si="26">D28+E27+E25*1.015</f>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28" si="25">E28+F27+F25*1.015</f>
+        <f t="shared" ref="F28" si="27">E28+F27+F25*1.015</f>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ref="G28" si="26">F28+G27+G25*1.015</f>
+        <f t="shared" ref="G28" si="28">F28+G27+G25*1.015</f>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28" si="27">G28+H27+H25*1.015</f>
+        <f t="shared" ref="H28" si="29">G28+H27+H25*1.015</f>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28" si="28">H28+I27+I25*1.015</f>
+        <f t="shared" ref="I28" si="30">H28+I27+I25*1.015</f>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28" si="29">I28+J27+J25*1.015</f>
+        <f t="shared" ref="J28" si="31">I28+J27+J25*1.015</f>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ref="K28" si="30">J28+K27+K25*1.015</f>
+        <f t="shared" ref="K28" si="32">J28+K27+K25*1.015</f>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28" si="31">K28+L27+L25*1.015</f>
+        <f t="shared" ref="L28" si="33">K28+L27+L25*1.015</f>
         <v>1106032.4272421217</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28" si="32">L28+M27+M25*1.015</f>
+        <f t="shared" ref="M28" si="34">L28+M27+M25*1.015</f>
         <v>1114788.5172911219</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28" si="33">M28+N27+N25*1.015</f>
+        <f t="shared" ref="N28" si="35">M28+N27+N25*1.015</f>
         <v>1123613.9263863433</v>
       </c>
       <c r="O28" s="1">
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4866,7 +4866,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <f>E7*(E4/12+1)</f>
         <v>963672.83867037052</v>
       </c>
@@ -4946,31 +4946,31 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f>0.015*C9</f>
+        <f t="shared" ref="C12:I12" si="1">0.015*C9</f>
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f>0.015*D9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>0.015*E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>0.015*F9</f>
-        <v>0</v>
+        <f>0.015*F10</f>
+        <v>14005.092580055565</v>
       </c>
       <c r="G12" s="1">
-        <f>0.015*G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>0.015*H9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>0.015*I9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4985,23 +4985,23 @@
         <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:I13" si="1">(D14)*(D11/12)</f>
+        <f t="shared" ref="E13:I13" si="2">(D14)*(D11/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5300.8877394639485</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5329.6008813860453</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5358.4695528268867</v>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <f>H14*(H11/12+1)</f>
         <v>994614.38699779043</v>
       </c>
@@ -5129,31 +5129,31 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <f>0.015*F16</f>
+        <f t="shared" ref="F19:L19" si="3">0.015*F16</f>
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f>0.015*G16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>0.015*H16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>0.015*I16</f>
-        <v>0</v>
+        <f>0.015*I17</f>
+        <v>14919.215804966856</v>
       </c>
       <c r="J19" s="1">
-        <f>0.015*J16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f>0.015*K16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>0.015*L16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -5171,23 +5171,23 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:L20" si="2">(G21)*(G18/12)</f>
+        <f t="shared" ref="H20:L20" si="4">(G21)*(G18/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5635.9392937057401</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5666.4672982133125</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5697.160662745302</v>
       </c>
       <c r="M20" s="1"/>
@@ -5242,7 +5242,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="7">
+      <c r="L22" s="9">
         <f>K21*(K18/12+1)</f>
         <v>1057480.6676311088</v>
       </c>
@@ -5349,51 +5349,51 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:O26" si="3">0.015*D23</f>
+        <f t="shared" ref="D26:O26" si="5">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>0.015*L24</f>
+        <v>15862.210014466631</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5408,47 +5408,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:O27" si="4">(D28)*(D25/12)</f>
+        <f t="shared" ref="E27:O27" si="6">(D28)*(D25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8756.0900490001313</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8825.4090952213828</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8895.2769172252192</v>
       </c>
     </row>
@@ -5462,47 +5462,47 @@
         <v>30450</v>
       </c>
       <c r="D28" s="1">
-        <f>C28+D27+D24*1.015</f>
+        <f t="shared" ref="D28:N28" si="7">C28+D27+D24*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f>D28+E27+E24*1.015</f>
+        <f t="shared" si="7"/>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f>E28+F27+F24*1.015</f>
+        <f t="shared" si="7"/>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f>F28+G27+G24*1.015</f>
+        <f t="shared" si="7"/>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f>G28+H27+H24*1.015</f>
+        <f t="shared" si="7"/>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f>H28+I27+I24*1.015</f>
+        <f t="shared" si="7"/>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f>I28+J27+J24*1.015</f>
+        <f t="shared" si="7"/>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f>J28+K27+K24*1.015</f>
+        <f t="shared" si="7"/>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f>K28+L27+L24*1.015</f>
+        <f t="shared" si="7"/>
         <v>1106032.4272421217</v>
       </c>
       <c r="M28" s="1">
-        <f>L28+M27+M24*1.015</f>
+        <f t="shared" si="7"/>
         <v>1114788.5172911219</v>
       </c>
       <c r="N28" s="1">
-        <f>M28+N27+N24*1.015</f>
+        <f t="shared" si="7"/>
         <v>1123613.9263863433</v>
       </c>
       <c r="O28" s="1">
@@ -5527,7 +5527,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="7">
+      <c r="O29" s="9">
         <f>N28*(N25/12+1)</f>
         <v>1132509.2033035685</v>
       </c>
@@ -5729,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6184,7 +6184,7 @@
         <v>450</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:R5" si="1">0.015*G2</f>
+        <f t="shared" ref="G5:Q5" si="1">0.015*G2</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -6216,8 +6216,8 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>0.015*O3</f>
+        <v>15089.806843347096</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
@@ -6232,7 +6232,7 @@
         <v>450</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" ref="S5:AD5" si="2">0.015*S2</f>
+        <f t="shared" ref="S5:AC5" si="2">0.015*S2</f>
         <v>0</v>
       </c>
       <c r="T5" s="1">
@@ -6264,8 +6264,8 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>0.015*AA3</f>
+        <v>17826.227786179021</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="2"/>
@@ -6280,7 +6280,7 @@
         <v>450</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AY5" si="3">0.015*AE2</f>
+        <f t="shared" ref="AE5:AP5" si="3">0.015*AE2</f>
         <v>0</v>
       </c>
       <c r="AF5" s="1">
@@ -6312,8 +6312,8 @@
         <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>0.015*AM3</f>
+        <v>21018.813709126676</v>
       </c>
       <c r="AN5" s="1">
         <f t="shared" si="3"/>
@@ -6399,7 +6399,7 @@
         <v>241.06250000000003</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:AD6" si="6">(S7)*(S4/12)</f>
+        <f t="shared" ref="T6:AC6" si="6">(S7)*(S4/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="U6" s="1">
@@ -6439,7 +6439,7 @@
         <v>9885.8517354732139</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" ref="AD6:AN6" si="7">(AC7)*(AC4/12)</f>
+        <f t="shared" ref="AD6" si="7">(AC7)*(AC4/12)</f>
         <v>9964.1147283790433</v>
       </c>
       <c r="AE6" s="1">
@@ -6447,7 +6447,7 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" ref="AF6:AY6" si="8">(AE7)*(AE4/12)</f>
+        <f t="shared" ref="AF6:AP6" si="8">(AE7)*(AE4/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AG6" s="1">
@@ -6513,47 +6513,47 @@
         <v>30450</v>
       </c>
       <c r="G7" s="1">
-        <f>F7+G6+G3*1.015</f>
+        <f t="shared" ref="G7:Q7" si="9">F7+G6+G3*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="H7" s="1">
-        <f>G7+H6+H3*1.015</f>
+        <f t="shared" si="9"/>
         <v>30934.033411458335</v>
       </c>
       <c r="I7" s="1">
-        <f>H7+I6+I3*1.015</f>
+        <f t="shared" si="9"/>
         <v>31178.92784263238</v>
       </c>
       <c r="J7" s="1">
-        <f>I7+J6+J3*1.015</f>
+        <f t="shared" si="9"/>
         <v>31425.761021386552</v>
       </c>
       <c r="K7" s="1">
-        <f>J7+K6+K3*1.015</f>
+        <f t="shared" si="9"/>
         <v>31674.548296139197</v>
       </c>
       <c r="L7" s="1">
-        <f>K7+L6+L3*1.015</f>
+        <f t="shared" si="9"/>
         <v>31925.305136816965</v>
       </c>
       <c r="M7" s="1">
-        <f>L7+M6+M3*1.015</f>
+        <f t="shared" si="9"/>
         <v>32178.047135816767</v>
       </c>
       <c r="N7" s="1">
-        <f>M7+N6+N3*1.015</f>
+        <f t="shared" si="9"/>
         <v>32432.790008975317</v>
       </c>
       <c r="O7" s="1">
-        <f>N7+O6+O3*1.015</f>
+        <f t="shared" si="9"/>
         <v>1053766.4793296999</v>
       </c>
       <c r="P7" s="1">
-        <f>O7+P6+P3*1.015</f>
+        <f t="shared" si="9"/>
         <v>1062108.79729106</v>
       </c>
       <c r="Q7" s="1">
-        <f>P7+Q6+Q3*1.015</f>
+        <f t="shared" si="9"/>
         <v>1070517.1586029476</v>
       </c>
       <c r="R7" s="1">
@@ -6561,47 +6561,47 @@
         <v>30450</v>
       </c>
       <c r="S7" s="1">
-        <f>R7+S6+S3*1.015</f>
+        <f t="shared" ref="S7:AC7" si="10">R7+S6+S3*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="T7" s="1">
-        <f>S7+T6+T3*1.015</f>
+        <f t="shared" si="10"/>
         <v>30934.033411458335</v>
       </c>
       <c r="U7" s="1">
-        <f>T7+U6+U3*1.015</f>
+        <f t="shared" si="10"/>
         <v>31178.92784263238</v>
       </c>
       <c r="V7" s="1">
-        <f>U7+V6+V3*1.015</f>
+        <f t="shared" si="10"/>
         <v>31425.761021386552</v>
       </c>
       <c r="W7" s="1">
-        <f>V7+W6+W3*1.015</f>
+        <f t="shared" si="10"/>
         <v>31674.548296139197</v>
       </c>
       <c r="X7" s="1">
-        <f>W7+X6+X3*1.015</f>
+        <f t="shared" si="10"/>
         <v>31925.305136816965</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7+Y6+Y3*1.015</f>
+        <f t="shared" si="10"/>
         <v>32178.047135816767</v>
       </c>
       <c r="Z7" s="1">
-        <f>Y7+Z6+Z3*1.015</f>
+        <f t="shared" si="10"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AA7" s="1">
-        <f>Z7+AA6+AA3*1.015</f>
+        <f t="shared" si="10"/>
         <v>1238930.9631279935</v>
       </c>
       <c r="AB7" s="1">
-        <f>AA7+AB6+AB3*1.015</f>
+        <f t="shared" si="10"/>
         <v>1248739.1665860901</v>
       </c>
       <c r="AC7" s="1">
-        <f>AB7+AC6+AC3*1.015</f>
+        <f t="shared" si="10"/>
         <v>1258625.0183215633</v>
       </c>
       <c r="AD7" s="1">
@@ -6609,47 +6609,47 @@
         <v>30450</v>
       </c>
       <c r="AE7" s="1">
-        <f>AD7+AE6+AE3*1.015</f>
+        <f t="shared" ref="AE7:AO7" si="11">AD7+AE6+AE3*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="AF7" s="1">
-        <f>AE7+AF6+AF3*1.015</f>
+        <f t="shared" si="11"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AG7" s="1">
-        <f>AF7+AG6+AG3*1.015</f>
+        <f t="shared" si="11"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AH7" s="1">
-        <f>AG7+AH6+AH3*1.015</f>
+        <f t="shared" si="11"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AI7" s="1">
-        <f>AH7+AI6+AI3*1.015</f>
+        <f t="shared" si="11"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AJ7" s="1">
-        <f>AI7+AJ6+AJ3*1.015</f>
+        <f t="shared" si="11"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AK7" s="1">
-        <f>AJ7+AK6+AK3*1.015</f>
+        <f t="shared" si="11"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AL7" s="1">
-        <f>AK7+AL6+AL3*1.015</f>
+        <f t="shared" si="11"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AM7" s="1">
-        <f>AL7+AM6+AM3*1.015</f>
+        <f t="shared" si="11"/>
         <v>1454962.6105807847</v>
       </c>
       <c r="AN7" s="1">
-        <f>AM7+AN6+AN3*1.015</f>
+        <f t="shared" si="11"/>
         <v>1466481.0645812158</v>
       </c>
       <c r="AO7" s="1">
-        <f>AN7+AO6+AO3*1.015</f>
+        <f t="shared" si="11"/>
         <v>1478090.7063424839</v>
       </c>
       <c r="AP7" s="1">
@@ -6665,7 +6665,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f>E7*(E4/12+1)</f>
         <v>963672.83867037052</v>
       </c>
@@ -6680,7 +6680,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="8">
+      <c r="R8" s="9">
         <f>Q7*(Q4/12+1)</f>
         <v>1078992.0861085542</v>
       </c>
@@ -6695,7 +6695,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="8">
+      <c r="AD8" s="9">
         <f>AC7*(AC4/12+1)</f>
         <v>1268589.1330499421</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-      <c r="AP8" s="8">
+      <c r="AP8" s="9">
         <f>AO7*(AO4/12+1)</f>
         <v>1489792.257767695</v>
       </c>
@@ -6974,75 +6974,75 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f>0.015*C9</f>
+        <f t="shared" ref="C12:I12" si="12">0.015*C9</f>
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f>0.015*D9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>0.015*E9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>0.015*F9</f>
-        <v>0</v>
+        <f>0.015*F10</f>
+        <v>13555.092580055565</v>
       </c>
       <c r="G12" s="1">
-        <f>0.015*G9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>0.015*H9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>0.015*I9</f>
+        <f t="shared" si="12"/>
         <v>450</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:U12" si="9">0.015*J9</f>
+        <f t="shared" ref="J12:T12" si="13">0.015*J9</f>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>0.015*R10</f>
+        <v>15734.881291628311</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U12" s="1">
@@ -7050,47 +7050,47 @@
         <v>450</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:AG12" si="10">0.015*V9</f>
+        <f t="shared" ref="V12:AC12" si="14">0.015*V9</f>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" ref="AD12:AQ12" si="11">0.015*AD9</f>
-        <v>0</v>
+        <f>0.015*AD10</f>
+        <v>18578.83699574913</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AD12:AF12" si="15">0.015*AE9</f>
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG12" s="1">
@@ -7098,51 +7098,51 @@
         <v>450</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" ref="AH12:AY12" si="12">0.015*AH9</f>
+        <f t="shared" ref="AH12:AS12" si="16">0.015*AH9</f>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>0.015*AP10</f>
+        <v>22346.883866515425</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7157,23 +7157,23 @@
         <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:I13" si="13">(D14)*(D11/12)</f>
+        <f t="shared" ref="E13:I13" si="17">(D14)*(D11/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5135.9502394639485</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5163.7699699277118</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5191.7403905981537</v>
       </c>
       <c r="J13" s="1">
@@ -7181,47 +7181,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:U13" si="14">(J14)*(J11/12)</f>
+        <f t="shared" ref="K13:U13" si="18">(J14)*(J11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>244.89443117404517</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>246.83317875417302</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>248.78727475264355</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>250.75684067776868</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>252.74199899980098</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>254.74287315854943</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>256.75958757105462</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8687.8807595574362</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8756.6598155705997</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8825.9833724438668</v>
       </c>
       <c r="V13" s="1">
@@ -7229,47 +7229,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ref="W13:AG13" si="15">(V14)*(V11/12)</f>
+        <f t="shared" ref="W13:AC13" si="19">(V14)*(V11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>244.89443117404517</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>246.83317875417302</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AQ13" si="16">(AC14)*(AC11/12)</f>
+        <f t="shared" ref="AD13:AG13" si="20">(AC14)*(AC11/12)</f>
         <v>256.75958757105462</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10211.372030501048</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10292.212059075848</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10373.6920712102</v>
       </c>
       <c r="AH13" s="1">
@@ -7277,47 +7277,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" ref="AI13:AY13" si="17">(AH14)*(AH11/12)</f>
+        <f t="shared" ref="AI13:AS13" si="21">(AH14)*(AH11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12229.893805576825</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12326.713798204308</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12424.30028244009</v>
       </c>
     </row>
@@ -7355,47 +7355,47 @@
         <v>30450</v>
       </c>
       <c r="J14" s="1">
-        <f>I14+J13+J10*1.015</f>
+        <f t="shared" ref="J14:T14" si="22">I14+J13+J10*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="K14" s="1">
-        <f>J14+K13+K10*1.015</f>
+        <f t="shared" si="22"/>
         <v>30934.033411458335</v>
       </c>
       <c r="L14" s="1">
-        <f>K14+L13+L10*1.015</f>
+        <f t="shared" si="22"/>
         <v>31178.92784263238</v>
       </c>
       <c r="M14" s="1">
-        <f>L14+M13+M10*1.015</f>
+        <f t="shared" si="22"/>
         <v>31425.761021386552</v>
       </c>
       <c r="N14" s="1">
-        <f>M14+N13+N10*1.015</f>
+        <f t="shared" si="22"/>
         <v>31674.548296139197</v>
       </c>
       <c r="O14" s="1">
-        <f>N14+O13+O10*1.015</f>
+        <f t="shared" si="22"/>
         <v>31925.305136816965</v>
       </c>
       <c r="P14" s="1">
-        <f>O14+P13+P10*1.015</f>
+        <f t="shared" si="22"/>
         <v>32178.047135816767</v>
       </c>
       <c r="Q14" s="1">
-        <f>P14+Q13+Q10*1.015</f>
+        <f t="shared" si="22"/>
         <v>32432.790008975317</v>
       </c>
       <c r="R14" s="1">
-        <f>Q14+R13+R10*1.015</f>
+        <f t="shared" si="22"/>
         <v>1097416.5169967287</v>
       </c>
       <c r="S14" s="1">
-        <f>R14+S13+S10*1.015</f>
+        <f t="shared" si="22"/>
         <v>1106104.3977562862</v>
       </c>
       <c r="T14" s="1">
-        <f>S14+T13+T10*1.015</f>
+        <f t="shared" si="22"/>
         <v>1114861.0575718568</v>
       </c>
       <c r="U14" s="1">
@@ -7403,47 +7403,47 @@
         <v>30450</v>
       </c>
       <c r="V14" s="1">
-        <f>U14+V13+V10*1.015</f>
+        <f t="shared" ref="V14:AF14" si="23">U14+V13+V10*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="W14" s="1">
-        <f>V14+W13+W10*1.015</f>
+        <f t="shared" si="23"/>
         <v>30934.033411458335</v>
       </c>
       <c r="X14" s="1">
-        <f>W14+X13+X10*1.015</f>
+        <f t="shared" si="23"/>
         <v>31178.92784263238</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14+Y13+Y10*1.015</f>
+        <f t="shared" si="23"/>
         <v>31425.761021386552</v>
       </c>
       <c r="Z14" s="1">
-        <f>Y14+Z13+Z10*1.015</f>
+        <f t="shared" si="23"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AA14" s="1">
-        <f>Z14+AA13+AA10*1.015</f>
+        <f t="shared" si="23"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AB14" s="1">
-        <f>AA14+AB13+AB10*1.015</f>
+        <f t="shared" si="23"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AC14" s="1">
-        <f>AB14+AC13+AC10*1.015</f>
+        <f t="shared" si="23"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AD14" s="1">
-        <f>AC14+AD13+AD10*1.015</f>
+        <f t="shared" si="23"/>
         <v>1289857.5196422376</v>
       </c>
       <c r="AE14" s="1">
-        <f>AD14+AE13+AE10*1.015</f>
+        <f t="shared" si="23"/>
         <v>1300068.8916727386</v>
       </c>
       <c r="AF14" s="1">
-        <f>AE14+AF13+AF10*1.015</f>
+        <f t="shared" si="23"/>
         <v>1310361.1037318145</v>
       </c>
       <c r="AG14" s="1">
@@ -7451,47 +7451,47 @@
         <v>30450</v>
       </c>
       <c r="AH14" s="1">
-        <f>AG14+AH13+AH10*1.015</f>
+        <f t="shared" ref="AH14:AR14" si="24">AG14+AH13+AH10*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="AI14" s="1">
-        <f>AH14+AI13+AI10*1.015</f>
+        <f t="shared" si="24"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AJ14" s="1">
-        <f>AI14+AJ13+AJ10*1.015</f>
+        <f t="shared" si="24"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AK14" s="1">
-        <f>AJ14+AK13+AK10*1.015</f>
+        <f t="shared" si="24"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AL14" s="1">
-        <f>AK14+AL13+AL10*1.015</f>
+        <f t="shared" si="24"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AM14" s="1">
-        <f>AL14+AM13+AM10*1.015</f>
+        <f t="shared" si="24"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AN14" s="1">
-        <f>AM14+AN13+AN10*1.015</f>
+        <f t="shared" si="24"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AO14" s="1">
-        <f>AN14+AO13+AO10*1.015</f>
+        <f t="shared" si="24"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AP14" s="1">
-        <f>AO14+AP13+AP10*1.015</f>
+        <f t="shared" si="24"/>
         <v>1544828.6912307567</v>
       </c>
       <c r="AQ14" s="1">
-        <f>AP14+AQ13+AQ10*1.015</f>
+        <f t="shared" si="24"/>
         <v>1557058.5850363334</v>
       </c>
       <c r="AR14" s="1">
-        <f>AQ14+AR13+AR10*1.015</f>
+        <f t="shared" si="24"/>
         <v>1569385.2988345376</v>
       </c>
       <c r="AS14" s="1">
@@ -7510,7 +7510,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <f>H14*(H11/12+1)</f>
         <v>963666.88942410331</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="8">
+      <c r="U15" s="9">
         <f>T14*(T11/12+1)</f>
         <v>1123687.0409443006</v>
       </c>
@@ -7540,7 +7540,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="8">
+      <c r="AG15" s="9">
         <f>AF14*(AF11/12+1)</f>
         <v>1320734.7958030247</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="8">
+      <c r="AS15" s="9">
         <f>AR14*(AR11/12+1)</f>
         <v>1581809.5991169775</v>
       </c>
@@ -7819,75 +7819,75 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <f>0.015*F16</f>
+        <f t="shared" ref="F19:L19" si="25">0.015*F16</f>
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f>0.015*G16</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>0.015*H16</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>0.015*I16</f>
-        <v>0</v>
+        <f>0.015*I17</f>
+        <v>14005.003341361549</v>
       </c>
       <c r="J19" s="1">
-        <f>0.015*J16</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f>0.015*K16</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>0.015*L16</f>
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:X19" si="18">0.015*M16</f>
+        <f t="shared" ref="M19:W19" si="26">0.015*M16</f>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>0.015*U17</f>
+        <v>16405.305614164507</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X19" s="1">
@@ -7895,47 +7895,47 @@
         <v>450</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:AJ19" si="19">0.015*Y16</f>
+        <f t="shared" ref="Y19:AC19" si="27">0.015*Y16</f>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AT19" si="20">0.015*AD16</f>
+        <f t="shared" ref="AD19:AI19" si="28">0.015*AD16</f>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>0.015*AG17</f>
+        <v>19361.021937045371</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
@@ -7943,51 +7943,51 @@
         <v>450</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" ref="AK19:AY19" si="21">0.015*AK16</f>
+        <f t="shared" ref="AK19:AV19" si="29">0.015*AK16</f>
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>0.015*AS17</f>
+        <v>23727.143986754661</v>
       </c>
       <c r="AT19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -8002,23 +8002,23 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:L20" si="22">(G21)*(G18/12)</f>
+        <f t="shared" ref="H20:L20" si="30">(G21)*(G18/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5300.855031003739</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5329.5679957550092</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5358.4364890653487</v>
       </c>
       <c r="M20" s="1">
@@ -8026,47 +8026,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:X20" si="23">(M21)*(M18/12)</f>
+        <f t="shared" ref="N20:X20" si="31">(M21)*(M18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>244.89443117404517</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>246.83317875417302</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>248.78727475264355</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>250.75684067776868</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>252.74199899980098</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>254.74287315854943</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>256.75958757105462</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>9047.0233445605081</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>9118.6456127049441</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>9190.8348904721934</v>
       </c>
       <c r="Y20" s="1">
@@ -8074,47 +8074,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" ref="Z20:AJ20" si="24">(Y21)*(Y18/12)</f>
+        <f t="shared" ref="Z20:AC20" si="32">(Y21)*(Y18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" ref="AD20:AT20" si="25">(AC21)*(AC18/12)</f>
+        <f t="shared" ref="AD20:AJ20" si="33">(AC21)*(AC18/12)</f>
         <v>250.75684067776868</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10630.384158081548</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10714.541365999694</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>10799.364818480524</v>
       </c>
       <c r="AK20" s="1">
@@ -8122,47 +8122,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" ref="AL20:AY20" si="26">(AK21)*(AK18/12)</f>
+        <f t="shared" ref="AL20:AV20" si="34">(AK21)*(AK18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AS20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>12969.291483877207</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>13071.965041457901</v>
       </c>
       <c r="AV20" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>13175.451431369444</v>
       </c>
     </row>
@@ -8200,47 +8200,47 @@
         <v>30450</v>
       </c>
       <c r="M21" s="1">
-        <f>L21+M20+M17*1.015</f>
+        <f t="shared" ref="M21:W21" si="35">L21+M20+M17*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="N21" s="1">
-        <f>M21+N20+N17*1.015</f>
+        <f t="shared" si="35"/>
         <v>30934.033411458335</v>
       </c>
       <c r="O21" s="1">
-        <f>N21+O20+O17*1.015</f>
+        <f t="shared" si="35"/>
         <v>31178.92784263238</v>
       </c>
       <c r="P21" s="1">
-        <f>O21+P20+P17*1.015</f>
+        <f t="shared" si="35"/>
         <v>31425.761021386552</v>
       </c>
       <c r="Q21" s="1">
-        <f>P21+Q20+Q17*1.015</f>
+        <f t="shared" si="35"/>
         <v>31674.548296139197</v>
       </c>
       <c r="R21" s="1">
-        <f>Q21+R20+R17*1.015</f>
+        <f t="shared" si="35"/>
         <v>31925.305136816965</v>
       </c>
       <c r="S21" s="1">
-        <f>R21+S20+S17*1.015</f>
+        <f t="shared" si="35"/>
         <v>32178.047135816767</v>
       </c>
       <c r="T21" s="1">
-        <f>S21+T20+T17*1.015</f>
+        <f t="shared" si="35"/>
         <v>32432.790008975317</v>
       </c>
       <c r="U21" s="1">
-        <f>T21+U20+U17*1.015</f>
+        <f t="shared" si="35"/>
         <v>1142781.8961550114</v>
       </c>
       <c r="V21" s="1">
-        <f>U21+V20+V17*1.015</f>
+        <f t="shared" si="35"/>
         <v>1151828.9194995719</v>
       </c>
       <c r="W21" s="1">
-        <f>V21+W20+W17*1.015</f>
+        <f t="shared" si="35"/>
         <v>1160947.5651122769</v>
       </c>
       <c r="X21" s="1">
@@ -8248,47 +8248,47 @@
         <v>30450</v>
       </c>
       <c r="Y21" s="1">
-        <f>X21+Y20+Y17*1.015</f>
+        <f t="shared" ref="Y21:AI21" si="36">X21+Y20+Y17*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="Z21" s="1">
-        <f>Y21+Z20+Z17*1.015</f>
+        <f t="shared" si="36"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AA21" s="1">
-        <f>Z21+AA20+AA17*1.015</f>
+        <f t="shared" si="36"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AB21" s="1">
-        <f>AA21+AB20+AB17*1.015</f>
+        <f t="shared" si="36"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AC21" s="1">
-        <f>AB21+AC20+AC17*1.015</f>
+        <f t="shared" si="36"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AD21" s="1">
-        <f>AC21+AD20+AD17*1.015</f>
+        <f t="shared" si="36"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AE21" s="1">
-        <f>AD21+AE20+AE17*1.015</f>
+        <f t="shared" si="36"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AF21" s="1">
-        <f>AE21+AF20+AF17*1.015</f>
+        <f t="shared" si="36"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AG21" s="1">
-        <f>AF21+AG20+AG17*1.015</f>
+        <f t="shared" si="36"/>
         <v>1342785.3673366164</v>
       </c>
       <c r="AH21" s="1">
-        <f>AG21+AH20+AH17*1.015</f>
+        <f t="shared" si="36"/>
         <v>1353415.751494698</v>
       </c>
       <c r="AI21" s="1">
-        <f>AH21+AI20+AI17*1.015</f>
+        <f t="shared" si="36"/>
         <v>1364130.2928606977</v>
       </c>
       <c r="AJ21" s="1">
@@ -8296,47 +8296,47 @@
         <v>30450</v>
       </c>
       <c r="AK21" s="1">
-        <f>AJ21+AK20+AK17*1.015</f>
+        <f t="shared" ref="AK21:AU21" si="37">AJ21+AK20+AK17*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="AL21" s="1">
-        <f>AK21+AL20+AL17*1.015</f>
+        <f t="shared" si="37"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AM21" s="1">
-        <f>AL21+AM20+AM17*1.015</f>
+        <f t="shared" si="37"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AN21" s="1">
-        <f>AM21+AN20+AN17*1.015</f>
+        <f t="shared" si="37"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AO21" s="1">
-        <f>AN21+AO20+AO17*1.015</f>
+        <f t="shared" si="37"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AP21" s="1">
-        <f>AO21+AP20+AP17*1.015</f>
+        <f t="shared" si="37"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AQ21" s="1">
-        <f>AP21+AQ20+AQ17*1.015</f>
+        <f t="shared" si="37"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AR21" s="1">
-        <f>AQ21+AR20+AR17*1.015</f>
+        <f t="shared" si="37"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AS21" s="1">
-        <f>AR21+AS20+AS17*1.015</f>
+        <f t="shared" si="37"/>
         <v>1638226.2927002786</v>
       </c>
       <c r="AT21" s="1">
-        <f>AS21+AT20+AT17*1.015</f>
+        <f t="shared" si="37"/>
         <v>1651195.5841841558</v>
       </c>
       <c r="AU21" s="1">
-        <f>AT21+AU20+AU17*1.015</f>
+        <f t="shared" si="37"/>
         <v>1664267.5492256137</v>
       </c>
       <c r="AV21" s="1">
@@ -8355,7 +8355,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="8">
+      <c r="L22" s="9">
         <f>K21*(K18/12+1)</f>
         <v>994608.24985497585</v>
       </c>
@@ -8370,7 +8370,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="8">
+      <c r="X22" s="9">
         <f>W21*(W18/12+1)</f>
         <v>1170138.4000027489</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="8">
+      <c r="AJ22" s="9">
         <f>AI21*(AI18/12+1)</f>
         <v>1374929.6576791781</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="8">
+      <c r="AV22" s="9">
         <f>AU21*(AU18/12+1)</f>
         <v>1677443.0006569829</v>
       </c>
@@ -8698,47 +8698,47 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:O26" si="27">0.015*D23</f>
+        <f t="shared" ref="D26:N26" si="38">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>0.015*L24</f>
+        <v>14469.123747824637</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
@@ -8746,47 +8746,47 @@
         <v>450</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" ref="P26:AA26" si="28">0.015*P23</f>
+        <f t="shared" ref="P26:Z26" si="39">0.015*P23</f>
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f>0.015*X24</f>
+        <v>17102.076000041234</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
@@ -8794,47 +8794,47 @@
         <v>450</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" ref="AB26:AM26" si="29">0.015*AB23</f>
+        <f t="shared" ref="AB26:AC26" si="40">0.015*AB23</f>
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AW26" si="30">0.015*AD23</f>
+        <f t="shared" ref="AD26:AL26" si="41">0.015*AD23</f>
         <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f>0.015*AJ24</f>
+        <v>20173.94486518767</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM26" s="1">
@@ -8842,51 +8842,51 @@
         <v>450</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" ref="AN26:AY26" si="31">0.015*AN23</f>
+        <f t="shared" ref="AN26:AY26" si="42">0.015*AN23</f>
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AV26" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f>0.015*AV24</f>
+        <v>25161.645009854743</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AX26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -8901,47 +8901,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:O27" si="32">(D28)*(D25/12)</f>
+        <f t="shared" ref="E27:O27" si="43">(D28)*(D25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>8009.8214753281627</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>8073.2325620078436</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>8137.1456531237391</v>
       </c>
       <c r="P27" s="1">
@@ -8949,47 +8949,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ref="Q27:AA27" si="33">(P28)*(P25/12)</f>
+        <f t="shared" ref="Q27:AA27" si="44">(P28)*(P25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>244.89443117404517</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>246.83317875417302</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>248.78727475264355</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>250.75684067776868</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>252.74199899980098</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>254.74287315854943</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>256.75958757105462</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>9420.2793693280819</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>9494.85658100193</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>9570.0241956015288</v>
       </c>
       <c r="AB27" s="1">
@@ -8997,47 +8997,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AM27" si="34">(AB28)*(AB25/12)</f>
+        <f t="shared" ref="AC27" si="45">(AB28)*(AB25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" ref="AD27:AW27" si="35">(AC28)*(AC25/12)</f>
+        <f t="shared" ref="AD27:AM27" si="46">(AC28)*(AC25/12)</f>
         <v>244.89443117404517</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>11065.862454448888</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>11153.467198879942</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>11241.765480871074</v>
       </c>
       <c r="AN27" s="1">
@@ -9045,47 +9045,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" ref="AO27:AY27" si="36">(AN28)*(AN25/12)</f>
+        <f t="shared" ref="AO27:AY27" si="47">(AN28)*(AN25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>13737.74571250179</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>13846.502866059096</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>13956.121013748731</v>
       </c>
     </row>
@@ -9099,47 +9099,47 @@
         <v>30450</v>
       </c>
       <c r="D28" s="1">
-        <f>C28+D27+D24*1.015</f>
+        <f t="shared" ref="D28:N28" si="48">C28+D27+D24*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f>D28+E27+E24*1.015</f>
+        <f t="shared" si="48"/>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f>E28+F27+F24*1.015</f>
+        <f t="shared" si="48"/>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f>F28+G27+G24*1.015</f>
+        <f t="shared" si="48"/>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f>G28+H27+H24*1.015</f>
+        <f t="shared" si="48"/>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f>H28+I27+I24*1.015</f>
+        <f t="shared" si="48"/>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f>I28+J27+J24*1.015</f>
+        <f t="shared" si="48"/>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f>J28+K27+K24*1.015</f>
+        <f t="shared" si="48"/>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f>K28+L27+L24*1.015</f>
+        <f t="shared" si="48"/>
         <v>1011766.9231993468</v>
       </c>
       <c r="M28" s="1">
-        <f>L28+M27+M24*1.015</f>
+        <f t="shared" si="48"/>
         <v>1019776.7446746749</v>
       </c>
       <c r="N28" s="1">
-        <f>M28+N27+N24*1.015</f>
+        <f t="shared" si="48"/>
         <v>1027849.9772366828</v>
       </c>
       <c r="O28" s="1">
@@ -9147,47 +9147,47 @@
         <v>30450</v>
       </c>
       <c r="P28" s="1">
-        <f>O28+P27+P24*1.015</f>
+        <f t="shared" ref="P28:Z28" si="49">O28+P27+P24*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="Q28" s="1">
-        <f>P28+Q27+Q24*1.015</f>
+        <f t="shared" si="49"/>
         <v>30934.033411458335</v>
       </c>
       <c r="R28" s="1">
-        <f>Q28+R27+R24*1.015</f>
+        <f t="shared" si="49"/>
         <v>31178.92784263238</v>
       </c>
       <c r="S28" s="1">
-        <f>R28+S27+S24*1.015</f>
+        <f t="shared" si="49"/>
         <v>31425.761021386552</v>
       </c>
       <c r="T28" s="1">
-        <f>S28+T27+T24*1.015</f>
+        <f t="shared" si="49"/>
         <v>31674.548296139197</v>
       </c>
       <c r="U28" s="1">
-        <f>T28+U27+U24*1.015</f>
+        <f t="shared" si="49"/>
         <v>31925.305136816965</v>
       </c>
       <c r="V28" s="1">
-        <f>U28+V27+V24*1.015</f>
+        <f t="shared" si="49"/>
         <v>32178.047135816767</v>
       </c>
       <c r="W28" s="1">
-        <f>V28+W27+W24*1.015</f>
+        <f t="shared" si="49"/>
         <v>32432.790008975317</v>
       </c>
       <c r="X28" s="1">
-        <f>W28+X27+X24*1.015</f>
+        <f t="shared" si="49"/>
         <v>1189930.0255993365</v>
       </c>
       <c r="Y28" s="1">
-        <f>X28+Y27+Y24*1.015</f>
+        <f t="shared" si="49"/>
         <v>1199350.3049686647</v>
       </c>
       <c r="Z28" s="1">
-        <f>Y28+Z27+Z24*1.015</f>
+        <f t="shared" si="49"/>
         <v>1208845.1615496667</v>
       </c>
       <c r="AA28" s="1">
@@ -9195,47 +9195,47 @@
         <v>30450</v>
       </c>
       <c r="AB28" s="1">
-        <f>AA28+AB27+AB24*1.015</f>
+        <f t="shared" ref="AB28:AL28" si="50">AA28+AB27+AB24*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="AC28" s="1">
-        <f>AB28+AC27+AC24*1.015</f>
+        <f t="shared" si="50"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AD28" s="1">
-        <f>AC28+AD27+AD24*1.015</f>
+        <f t="shared" si="50"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AE28" s="1">
-        <f>AD28+AE27+AE24*1.015</f>
+        <f t="shared" si="50"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AF28" s="1">
-        <f>AE28+AF27+AF24*1.015</f>
+        <f t="shared" si="50"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AG28" s="1">
-        <f>AF28+AG27+AG24*1.015</f>
+        <f t="shared" si="50"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AH28" s="1">
-        <f>AG28+AH27+AH24*1.015</f>
+        <f t="shared" si="50"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AI28" s="1">
-        <f>AH28+AI27+AI24*1.015</f>
+        <f t="shared" si="50"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AJ28" s="1">
-        <f>AI28+AJ27+AJ24*1.015</f>
+        <f t="shared" si="50"/>
         <v>1397793.1521409121</v>
       </c>
       <c r="AK28" s="1">
-        <f>AJ28+AK27+AK24*1.015</f>
+        <f t="shared" si="50"/>
         <v>1408859.014595361</v>
       </c>
       <c r="AL28" s="1">
-        <f>AK28+AL27+AL24*1.015</f>
+        <f t="shared" si="50"/>
         <v>1420012.4817942409</v>
       </c>
       <c r="AM28" s="1">
@@ -9243,47 +9243,47 @@
         <v>30450</v>
       </c>
       <c r="AN28" s="1">
-        <f>AM28+AN27+AN24*1.015</f>
+        <f t="shared" ref="AN28:AX28" si="51">AM28+AN27+AN24*1.015</f>
         <v>30691.0625</v>
       </c>
       <c r="AO28" s="1">
-        <f>AN28+AO27+AO24*1.015</f>
+        <f t="shared" si="51"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AP28" s="1">
-        <f>AO28+AP27+AP24*1.015</f>
+        <f t="shared" si="51"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AQ28" s="1">
-        <f>AP28+AQ27+AQ24*1.015</f>
+        <f t="shared" si="51"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AR28" s="1">
-        <f>AQ28+AR27+AR24*1.015</f>
+        <f t="shared" si="51"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AS28" s="1">
-        <f>AR28+AS27+AS24*1.015</f>
+        <f t="shared" si="51"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AT28" s="1">
-        <f>AS28+AT27+AT24*1.015</f>
+        <f t="shared" si="51"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AU28" s="1">
-        <f>AT28+AU27+AU24*1.015</f>
+        <f t="shared" si="51"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AV28" s="1">
-        <f>AU28+AV27+AV24*1.015</f>
+        <f t="shared" si="51"/>
         <v>1735294.1952633839</v>
       </c>
       <c r="AW28" s="1">
-        <f>AV28+AW27+AW24*1.015</f>
+        <f t="shared" si="51"/>
         <v>1749031.9409758856</v>
       </c>
       <c r="AX28" s="1">
-        <f>AW28+AX27+AX24*1.015</f>
+        <f t="shared" si="51"/>
         <v>1762878.4438419447</v>
       </c>
       <c r="AY28" s="1">
@@ -9308,7 +9308,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="8">
+      <c r="O29" s="9">
         <f>N28*(N25/12+1)</f>
         <v>1035987.1228898064</v>
       </c>
@@ -9323,7 +9323,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="8">
+      <c r="AA29" s="9">
         <f>Z28*(Z25/12+1)</f>
         <v>1218415.1857452681</v>
       </c>
@@ -9338,7 +9338,7 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="8">
+      <c r="AM29" s="9">
         <f>AL28*(AL25/12+1)</f>
         <v>1431254.2472751117</v>
       </c>
@@ -9353,7 +9353,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-      <c r="AY29" s="8">
+      <c r="AY29" s="9">
         <f>AX28*(AX25/12+1)</f>
         <v>1776834.5648556931</v>
       </c>
@@ -9380,8 +9380,8 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4"/>
@@ -9520,16 +9520,16 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>

--- a/Olymp/Moscow/2014/answers/E/Вклады.xlsx
+++ b/Olymp/Moscow/2014/answers/E/Вклады.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,31 +610,31 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <f>0.015*C2</f>
+        <f t="shared" ref="C5:I5" si="0">0.015*C2</f>
         <v>450</v>
       </c>
       <c r="D5" s="1">
-        <f>0.015*D2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>0.015*E2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>0.015*F2</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="G5" s="1">
-        <f>0.015*G2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>0.015*H2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>0.015*I2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
@@ -651,27 +651,27 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>(C7)*(C4/12)</f>
+        <f t="shared" ref="D6:I6" si="1">(C7)*(C4/12)</f>
         <v>101.5</v>
       </c>
       <c r="E6" s="1">
-        <f>(D7)*(D4/12)</f>
+        <f t="shared" si="1"/>
         <v>101.83833333333334</v>
       </c>
       <c r="F6" s="1">
-        <f>(E7)*(E4/12)</f>
+        <f t="shared" si="1"/>
         <v>102.17779444444444</v>
       </c>
       <c r="G6" s="1">
-        <f>(F7)*(F4/12)</f>
+        <f t="shared" si="1"/>
         <v>101.5</v>
       </c>
       <c r="H6" s="1">
-        <f>(G7)*(G4/12)</f>
+        <f t="shared" si="1"/>
         <v>101.83833333333334</v>
       </c>
       <c r="I6" s="1">
-        <f>(H7)*(H4/12)</f>
+        <f t="shared" si="1"/>
         <v>102.17779444444444</v>
       </c>
       <c r="J6" s="1"/>
@@ -687,27 +687,27 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <f>C2+C5</f>
+        <f t="shared" ref="C7" si="2">IF(ISBLANK(C2),B7+C6+C3+C5,C2+C5)</f>
         <v>30450</v>
       </c>
       <c r="D7" s="1">
-        <f>C7+D6+D3*1.015</f>
+        <f t="shared" ref="D7" si="3">IF(ISBLANK(D2),C7+D6+D3+D5,D2+D5)</f>
         <v>30551.5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="0">D7+E6+E3*1.015</f>
+        <f t="shared" ref="E7" si="4">IF(ISBLANK(E2),D7+E6+E3+E5,E2+E5)</f>
         <v>30653.338333333333</v>
       </c>
       <c r="F7" s="1">
-        <f>F2+F5</f>
+        <f t="shared" ref="F7" si="5">IF(ISBLANK(F2),E7+F6+F3+F5,F2+F5)</f>
         <v>30450</v>
       </c>
       <c r="G7" s="1">
-        <f>F7+G6+G3*1.015</f>
+        <f t="shared" ref="G7" si="6">IF(ISBLANK(G2),F7+G6+G3+G5,G2+G5)</f>
         <v>30551.5</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7" si="1">G7+H6+H3*1.015</f>
+        <f t="shared" ref="H7" si="7">IF(ISBLANK(H2),G7+H6+H3+H5,H2+H5)</f>
         <v>30653.338333333333</v>
       </c>
       <c r="I7" s="1">
@@ -870,28 +870,28 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f>(C14)*(C11/12)</f>
+        <f t="shared" ref="D13:I13" si="8">(C14)*(C11/12)</f>
         <v>384.85416666666669</v>
       </c>
       <c r="E13" s="1">
-        <f>(D14)*(D11/12)</f>
+        <f t="shared" si="8"/>
         <v>386.93879340277783</v>
       </c>
       <c r="F13" s="1">
-        <f>(E14)*(E11/12)</f>
+        <f t="shared" si="8"/>
         <v>389.03471186704286</v>
       </c>
       <c r="G13" s="1">
-        <f>(F14)*(F11/12)</f>
-        <v>395.29576922298935</v>
+        <f t="shared" si="8"/>
+        <v>395.29576922298941</v>
       </c>
       <c r="H13" s="1">
-        <f>(G14)*(G11/12)</f>
-        <v>397.43695463961382</v>
+        <f t="shared" si="8"/>
+        <v>397.43695463961387</v>
       </c>
       <c r="I13" s="1">
-        <f>(H14)*(H11/12)</f>
-        <v>399.58973814391175</v>
+        <f t="shared" si="8"/>
+        <v>399.58973814391186</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -906,28 +906,28 @@
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <f>C9+C12</f>
+        <f t="shared" ref="C14" si="9">IF(ISBLANK(C9),B14+C13+C10+C12,C9+C12)</f>
         <v>71050</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:E14" si="2">C14+D13+D10*1.015</f>
+        <f t="shared" ref="D14" si="10">IF(ISBLANK(D9),C14+D13+D10+D12,D9+D12)</f>
         <v>71434.854166666672</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E14" si="11">IF(ISBLANK(E9),D14+E13+E10+E12,E9+E12)</f>
         <v>71821.792960069448</v>
       </c>
       <c r="F14" s="1">
-        <f>E14+F13+F10*1.015</f>
-        <v>72977.680471936488</v>
+        <f t="shared" ref="F14" si="12">IF(ISBLANK(F9),E14+F13+F10+F12,F9+F12)</f>
+        <v>72977.680471936503</v>
       </c>
       <c r="G14" s="1">
-        <f>F14+G13+G10*1.015</f>
-        <v>73372.976241159471</v>
+        <f t="shared" ref="G14" si="13">IF(ISBLANK(G9),F14+G13+G10+G12,G9+G12)</f>
+        <v>73372.976241159486</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14" si="3">G14+H13+H10*1.015</f>
-        <v>73770.41319579909</v>
+        <f t="shared" ref="H14" si="14">IF(ISBLANK(H9),G14+H13+H10+H12,H9+H12)</f>
+        <v>73770.413195799105</v>
       </c>
       <c r="I14" s="1">
         <f>I9+I12</f>
@@ -953,7 +953,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="9">
         <f>H14*(H11/12+1)</f>
-        <v>74170.002933943004</v>
+        <v>74170.002933943018</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -975,7 +975,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="6">
         <f>I8+I15</f>
-        <v>104925.51906172078</v>
+        <v>104925.5190617208</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4646,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4833,15 +4833,15 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <f>C2+C5</f>
+        <f>IF(ISBLANK(C2),B7+C6+C3+C5,C2+C5)</f>
         <v>954100</v>
       </c>
       <c r="D7" s="1">
-        <f>C7+D6+D3*1.015</f>
+        <f>IF(ISBLANK(D2),C7+D6+D3+D5,D2+D5)</f>
         <v>957280.33333333337</v>
       </c>
       <c r="E7" s="1">
-        <f>D7+E6+E3*1.015</f>
+        <f>IF(ISBLANK(E2),D7+E6+E3+E5,E2+E5)</f>
         <v>960471.26777777786</v>
       </c>
       <c r="F7" s="1">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>5300.8877394639485</v>
+        <v>5300.8877394639494</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
@@ -5011,28 +5011,28 @@
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <f>C9+C12</f>
+        <f>IF(ISBLANK(C9),B14+C13+C10+C12,C9+C12)</f>
         <v>30450</v>
       </c>
       <c r="D14" s="1">
-        <f>C14+D13+D10*1.015</f>
+        <f>IF(ISBLANK(D9),C14+D13+D10+D12,D9+D12)</f>
         <v>30614.9375</v>
       </c>
       <c r="E14" s="1">
-        <f>D14+E13+E10*1.015</f>
+        <f t="shared" ref="E14:H14" si="3">IF(ISBLANK(E9),D14+E13+E10+E12,E9+E12)</f>
         <v>30780.768411458332</v>
       </c>
       <c r="F14" s="1">
-        <f>E14+F13+F10*1.015</f>
-        <v>978625.42882411357</v>
+        <f t="shared" si="3"/>
+        <v>978625.42882411368</v>
       </c>
       <c r="G14" s="1">
-        <f>F14+G13+G10*1.015</f>
-        <v>983926.31656357751</v>
+        <f t="shared" si="3"/>
+        <v>983926.31656357762</v>
       </c>
       <c r="H14" s="1">
-        <f>G14+H13+H10*1.015</f>
-        <v>989255.91744496359</v>
+        <f t="shared" si="3"/>
+        <v>989255.91744496371</v>
       </c>
       <c r="I14" s="1">
         <f>I9+I10</f>
@@ -5052,7 +5052,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="9">
         <f>H14*(H11/12+1)</f>
-        <v>994614.38699779043</v>
+        <v>994614.38699779054</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5129,15 +5129,15 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:L19" si="3">0.015*F16</f>
+        <f t="shared" ref="F19:L19" si="4">0.015*F16</f>
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
@@ -5145,15 +5145,15 @@
         <v>14919.215804966856</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -5171,23 +5171,23 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:L20" si="4">(G21)*(G18/12)</f>
+        <f t="shared" ref="H20:L20" si="5">(G21)*(G18/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
-        <v>5635.9392937057401</v>
+        <f t="shared" si="5"/>
+        <v>5635.939293705741</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
-        <v>5666.4672982133125</v>
+        <f t="shared" si="5"/>
+        <v>5666.4672982133134</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5697.160662745302</v>
       </c>
       <c r="M20" s="1"/>
@@ -5200,27 +5200,27 @@
         <v>7</v>
       </c>
       <c r="F21" s="1">
-        <f>F16+F19</f>
+        <f>IF(ISBLANK(F16),E21+F20+F17+F19,F16+F19)</f>
         <v>30450</v>
       </c>
       <c r="G21" s="1">
-        <f>F21+G20+G17*1.015</f>
+        <f>IF(ISBLANK(G16),F21+G20+G17+G19,G16+G19)</f>
         <v>30614.9375</v>
       </c>
       <c r="H21" s="1">
-        <f>G21+H20+H17*1.015</f>
+        <f t="shared" ref="H21:K21" si="6">IF(ISBLANK(H16),G21+H20+H17+H19,H16+H19)</f>
         <v>30780.768411458332</v>
       </c>
       <c r="I21" s="1">
-        <f>H21+I20+I17*1.015</f>
-        <v>1040481.1003764443</v>
+        <f t="shared" si="6"/>
+        <v>1040481.1003764444</v>
       </c>
       <c r="J21" s="1">
-        <f>I21+J20+J17*1.015</f>
-        <v>1046117.03967015</v>
+        <f t="shared" si="6"/>
+        <v>1046117.0396701501</v>
       </c>
       <c r="K21" s="1">
-        <f>J21+K20+K17*1.015</f>
+        <f t="shared" si="6"/>
         <v>1051783.5069683634</v>
       </c>
       <c r="L21" s="1">
@@ -5349,35 +5349,35 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:O26" si="5">0.015*D23</f>
+        <f t="shared" ref="D26:O26" si="7">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
@@ -5385,15 +5385,15 @@
         <v>15862.210014466631</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5408,48 +5408,48 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:O27" si="6">(D28)*(D25/12)</f>
+        <f t="shared" ref="E27:O27" si="8">(D28)*(D25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="6"/>
-        <v>8756.0900490001313</v>
+        <f t="shared" si="8"/>
+        <v>8756.0900490001331</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="6"/>
-        <v>8825.4090952213828</v>
+        <f t="shared" si="8"/>
+        <v>8825.4090952213846</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="6"/>
-        <v>8895.2769172252192</v>
+        <f t="shared" si="8"/>
+        <v>8895.276917225221</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -5458,52 +5458,52 @@
         <v>7</v>
       </c>
       <c r="C28" s="1">
-        <f>C23+C26</f>
+        <f>IF(ISBLANK(C23),B28+C27+C24+C26,C23+C26)</f>
         <v>30450</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:N28" si="7">C28+D27+D24*1.015</f>
+        <f t="shared" ref="D28:N28" si="9">IF(ISBLANK(D23),C28+D27+D24+D26,D23+D26)</f>
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="7"/>
-        <v>1106032.4272421217</v>
+        <f t="shared" si="9"/>
+        <v>1106032.4272421219</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="7"/>
-        <v>1114788.5172911219</v>
+        <f t="shared" si="9"/>
+        <v>1114788.5172911221</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="7"/>
-        <v>1123613.9263863433</v>
+        <f t="shared" si="9"/>
+        <v>1123613.9263863435</v>
       </c>
       <c r="O28" s="1">
         <f>O23+O24</f>
@@ -5529,7 +5529,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="9">
         <f>N28*(N25/12+1)</f>
-        <v>1132509.2033035685</v>
+        <v>1132509.2033035688</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="O44" s="6">
         <f>O29</f>
-        <v>1132509.2033035685</v>
+        <v>1132509.2033035688</v>
       </c>
     </row>
   </sheetData>
@@ -5730,7 +5730,7 @@
   <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,7 +6002,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="6">
         <f>O29 - 30000</f>
-        <v>1005987.1228898064</v>
+        <v>1005987.1228898067</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -6017,7 +6017,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="6">
         <f>AA29 - 30000</f>
-        <v>1188415.1857452681</v>
+        <v>1188415.1857452691</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -6032,7 +6032,7 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="6">
         <f>AM29 - 30000</f>
-        <v>1401254.2472751117</v>
+        <v>1401254.2472751127</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="O5" s="1">
         <f>0.015*O3</f>
-        <v>15089.806843347096</v>
+        <v>15089.8068433471</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="AA5" s="1">
         <f>0.015*AA3</f>
-        <v>17826.227786179021</v>
+        <v>17826.227786179035</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="2"/>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="AM5" s="1">
         <f>0.015*AM3</f>
-        <v>21018.813709126676</v>
+        <v>21018.813709126691</v>
       </c>
       <c r="AN5" s="1">
         <f t="shared" si="3"/>
@@ -6339,11 +6339,11 @@
         <v>3180.3333333333335</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:F6" si="4">(D7)*(D4/12)</f>
+        <f>(D7)*(D4/12)</f>
         <v>3190.9344444444446</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="4"/>
+        <f>(E7)*(E4/12)</f>
         <v>3201.5708925925933</v>
       </c>
       <c r="G6" s="1">
@@ -6351,144 +6351,144 @@
         <v>241.06250000000003</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:R6" si="5">(G7)*(G4/12)</f>
+        <f t="shared" ref="H6:R6" si="4">(G7)*(G4/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>244.89443117404517</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>246.83317875417302</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>248.78727475264355</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>250.75684067776868</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>252.74199899980098</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>254.74287315854943</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>256.75958757105462</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="5"/>
-        <v>8342.3179613601242</v>
+        <f t="shared" si="4"/>
+        <v>8342.317961360126</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="5"/>
-        <v>8408.3613118875583</v>
+        <f t="shared" si="4"/>
+        <v>8408.3613118875601</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="5"/>
-        <v>8474.927505606669</v>
+        <f t="shared" si="4"/>
+        <v>8474.9275056066708</v>
       </c>
       <c r="S6" s="1">
         <f>(R7)*(R4/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:AC6" si="6">(S7)*(S4/12)</f>
+        <f t="shared" ref="T6:AC6" si="5">(S7)*(S4/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>244.89443117404517</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>246.83317875417302</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>248.78727475264355</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>250.75684067776868</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>252.74199899980098</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="6"/>
-        <v>9808.2034580966156</v>
+        <f t="shared" si="5"/>
+        <v>9808.2034580966229</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="6"/>
-        <v>9885.8517354732139</v>
+        <f t="shared" si="5"/>
+        <v>9885.8517354732212</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" ref="AD6" si="7">(AC7)*(AC4/12)</f>
-        <v>9964.1147283790433</v>
+        <f t="shared" ref="AD6" si="6">(AC7)*(AC4/12)</f>
+        <v>9964.1147283790506</v>
       </c>
       <c r="AE6" s="1">
         <f>(AD7)*(AD4/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" ref="AF6:AP6" si="8">(AE7)*(AE4/12)</f>
+        <f t="shared" ref="AF6:AP6" si="7">(AE7)*(AE4/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="8"/>
-        <v>11518.454000431213</v>
+        <f t="shared" si="7"/>
+        <v>11518.454000431222</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="8"/>
-        <v>11609.64176126796</v>
+        <f t="shared" si="7"/>
+        <v>11609.641761267969</v>
       </c>
       <c r="AP6" s="1">
-        <f t="shared" si="8"/>
-        <v>11701.551425211332</v>
+        <f t="shared" si="7"/>
+        <v>11701.551425211341</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -6497,163 +6497,162 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <f>C2+C5</f>
+        <f>IF(ISBLANK(C2),B7+C6+C3+C5,C2+C5)</f>
         <v>954100</v>
       </c>
       <c r="D7" s="1">
-        <f>C7+D6+D3*1.015</f>
+        <f>IF(ISBLANK(D2),C7+D6+D3+D5,D2+D5)</f>
         <v>957280.33333333337</v>
       </c>
       <c r="E7" s="1">
-        <f>D7+E6+E3*1.015</f>
+        <f t="shared" ref="E7:L7" si="8">IF(ISBLANK(E2),D7+E6+E3+E5,E2+E5)</f>
         <v>960471.26777777786</v>
       </c>
       <c r="F7" s="1">
-        <f>F2+F5</f>
+        <f t="shared" si="8"/>
         <v>30450</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:Q7" si="9">F7+G6+G3*1.015</f>
+        <f t="shared" si="8"/>
         <v>30691.0625</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>30934.033411458335</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>31178.92784263238</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>31425.761021386552</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>31674.548296139197</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>31925.305136816965</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M7" si="9">IF(ISBLANK(M2),L7+M6+M3+M5,M2+M5)</f>
         <v>32178.047135816767</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N7" si="10">IF(ISBLANK(N2),M7+N6+N3+N5,N2+N5)</f>
         <v>32432.790008975317</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="9"/>
-        <v>1053766.4793296999</v>
+        <f t="shared" ref="O7" si="11">IF(ISBLANK(O2),N7+O6+O3+O5,O2+O5)</f>
+        <v>1053766.4793297001</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="9"/>
-        <v>1062108.79729106</v>
+        <f t="shared" ref="P7" si="12">IF(ISBLANK(P2),O7+P6+P3+P5,P2+P5)</f>
+        <v>1062108.7972910602</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="9"/>
-        <v>1070517.1586029476</v>
+        <f t="shared" ref="Q7" si="13">IF(ISBLANK(Q2),P7+Q6+Q3+Q5,Q2+Q5)</f>
+        <v>1070517.1586029478</v>
       </c>
       <c r="R7" s="1">
-        <f>R2+R5</f>
+        <f t="shared" ref="R7" si="14">IF(ISBLANK(R2),Q7+R6+R3+R5,R2+R5)</f>
         <v>30450</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" ref="S7:AC7" si="10">R7+S6+S3*1.015</f>
+        <f t="shared" ref="S7" si="15">IF(ISBLANK(S2),R7+S6+S3+S5,S2+S5)</f>
         <v>30691.0625</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="T7" si="16">IF(ISBLANK(T2),S7+T6+T3+T5,T2+T5)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U7" si="17">IF(ISBLANK(U2),T7+U6+U3+U5,U2+U5)</f>
         <v>31178.92784263238</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="V7" si="18">IF(ISBLANK(V2),U7+V6+V3+V5,V2+V5)</f>
         <v>31425.761021386552</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="W7" si="19">IF(ISBLANK(W2),V7+W6+W3+W5,W2+W5)</f>
         <v>31674.548296139197</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="X7" si="20">IF(ISBLANK(X2),W7+X6+X3+X5,X2+X5)</f>
         <v>31925.305136816965</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Y7" si="21">IF(ISBLANK(Y2),X7+Y6+Y3+Y5,Y2+Y5)</f>
         <v>32178.047135816767</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Z7" si="22">IF(ISBLANK(Z2),Y7+Z6+Z3+Z5,Z2+Z5)</f>
         <v>32432.790008975317</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="10"/>
-        <v>1238930.9631279935</v>
+        <f t="shared" ref="AA7" si="23">IF(ISBLANK(AA2),Z7+AA6+AA3+AA5,AA2+AA5)</f>
+        <v>1238930.9631279944</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="10"/>
-        <v>1248739.1665860901</v>
+        <f t="shared" ref="AB7" si="24">IF(ISBLANK(AB2),AA7+AB6+AB3+AB5,AB2+AB5)</f>
+        <v>1248739.166586091</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="10"/>
-        <v>1258625.0183215633</v>
+        <f t="shared" ref="AC7" si="25">IF(ISBLANK(AC2),AB7+AC6+AC3+AC5,AC2+AC5)</f>
+        <v>1258625.0183215642</v>
       </c>
       <c r="AD7" s="1">
-        <f>AD2+AD5</f>
+        <f t="shared" ref="AD7" si="26">IF(ISBLANK(AD2),AC7+AD6+AD3+AD5,AD2+AD5)</f>
         <v>30450</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" ref="AE7:AO7" si="11">AD7+AE6+AE3*1.015</f>
+        <f t="shared" ref="AE7" si="27">IF(ISBLANK(AE2),AD7+AE6+AE3+AE5,AE2+AE5)</f>
         <v>30691.0625</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AF7" si="28">IF(ISBLANK(AF2),AE7+AF6+AF3+AF5,AF2+AF5)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AG7" si="29">IF(ISBLANK(AG2),AF7+AG6+AG3+AG5,AG2+AG5)</f>
         <v>31178.92784263238</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AH7" si="30">IF(ISBLANK(AH2),AG7+AH6+AH3+AH5,AH2+AH5)</f>
         <v>31425.761021386552</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AI7" si="31">IF(ISBLANK(AI2),AH7+AI6+AI3+AI5,AI2+AI5)</f>
         <v>31674.548296139197</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AJ7" si="32">IF(ISBLANK(AJ2),AI7+AJ6+AJ3+AJ5,AJ2+AJ5)</f>
         <v>31925.305136816965</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AK7" si="33">IF(ISBLANK(AK2),AJ7+AK6+AK3+AK5,AK2+AK5)</f>
         <v>32178.047135816767</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AL7" si="34">IF(ISBLANK(AL2),AK7+AL6+AL3+AL5,AL2+AL5)</f>
         <v>32432.790008975317</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="11"/>
-        <v>1454962.6105807847</v>
+        <f t="shared" ref="AM7" si="35">IF(ISBLANK(AM2),AL7+AM6+AM3+AM5,AM2+AM5)</f>
+        <v>1454962.6105807859</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="11"/>
-        <v>1466481.0645812158</v>
+        <f t="shared" ref="AN7" si="36">IF(ISBLANK(AN2),AM7+AN6+AN3+AN5,AN2+AN5)</f>
+        <v>1466481.064581217</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="11"/>
-        <v>1478090.7063424839</v>
+        <f t="shared" ref="AO7" si="37">IF(ISBLANK(AO2),AN7+AO6+AO3+AO5,AO2+AO5)</f>
+        <v>1478090.706342485</v>
       </c>
       <c r="AP7" s="1">
-        <f>AP2+AP3</f>
         <v>0</v>
       </c>
     </row>
@@ -6682,7 +6681,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="9">
         <f>Q7*(Q4/12+1)</f>
-        <v>1078992.0861085542</v>
+        <v>1078992.0861085544</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -6697,7 +6696,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="9">
         <f>AC7*(AC4/12+1)</f>
-        <v>1268589.1330499421</v>
+        <v>1268589.133049943</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -6712,7 +6711,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="9">
         <f>AO7*(AO4/12+1)</f>
-        <v>1489792.257767695</v>
+        <v>1489792.2577676962</v>
       </c>
     </row>
     <row r="9" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6799,7 +6798,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="6">
         <f>R8 - 30000</f>
-        <v>1048992.0861085542</v>
+        <v>1048992.0861085544</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -6814,7 +6813,7 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="6">
         <f>AD8 - 30000</f>
-        <v>1238589.1330499421</v>
+        <v>1238589.133049943</v>
       </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -6829,7 +6828,7 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="6">
         <f>AP8</f>
-        <v>1489792.257767695</v>
+        <v>1489792.2577676962</v>
       </c>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
@@ -6974,15 +6973,15 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:I12" si="12">0.015*C9</f>
+        <f t="shared" ref="C12:I12" si="38">0.015*C9</f>
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
@@ -6990,59 +6989,59 @@
         <v>13555.092580055565</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>450</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:T12" si="13">0.015*J9</f>
+        <f t="shared" ref="J12:T12" si="39">0.015*J9</f>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R12" s="1">
         <f>0.015*R10</f>
-        <v>15734.881291628311</v>
+        <v>15734.881291628315</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U12" s="1">
@@ -7050,47 +7049,47 @@
         <v>450</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:AC12" si="14">0.015*V9</f>
+        <f t="shared" ref="V12:AC12" si="40">0.015*V9</f>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
         <f>0.015*AD10</f>
-        <v>18578.83699574913</v>
+        <v>18578.836995749145</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" ref="AD12:AF12" si="15">0.015*AE9</f>
+        <f t="shared" ref="AE12:AF12" si="41">0.015*AE9</f>
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG12" s="1">
@@ -7098,51 +7097,51 @@
         <v>450</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" ref="AH12:AS12" si="16">0.015*AH9</f>
+        <f t="shared" ref="AH12:AS12" si="42">0.015*AH9</f>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP12" s="1">
         <f>0.015*AP10</f>
-        <v>22346.883866515425</v>
+        <v>22346.88386651544</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -7157,168 +7156,168 @@
         <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:I13" si="17">(D14)*(D11/12)</f>
+        <f t="shared" ref="E13:I13" si="43">(D14)*(D11/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="43"/>
         <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="17"/>
-        <v>5135.9502394639485</v>
+        <f t="shared" si="43"/>
+        <v>5135.9502394639494</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="17"/>
-        <v>5163.7699699277118</v>
+        <f t="shared" si="43"/>
+        <v>5163.7699699277127</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="17"/>
-        <v>5191.7403905981537</v>
+        <f t="shared" si="43"/>
+        <v>5191.7403905981546</v>
       </c>
       <c r="J13" s="1">
         <f>(I14)*(I11/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:U13" si="18">(J14)*(J11/12)</f>
+        <f t="shared" ref="K13:U13" si="44">(J14)*(J11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>244.89443117404517</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>246.83317875417302</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>248.78727475264355</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>250.75684067776868</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>252.74199899980098</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>254.74287315854943</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="44"/>
         <v>256.75958757105462</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="18"/>
-        <v>8687.8807595574362</v>
+        <f t="shared" si="44"/>
+        <v>8687.8807595574399</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="18"/>
-        <v>8756.6598155705997</v>
+        <f t="shared" si="44"/>
+        <v>8756.6598155706033</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="18"/>
-        <v>8825.9833724438668</v>
+        <f t="shared" si="44"/>
+        <v>8825.9833724438704</v>
       </c>
       <c r="V13" s="1">
         <f>(U14)*(U11/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ref="W13:AC13" si="19">(V14)*(V11/12)</f>
+        <f t="shared" ref="W13:AC13" si="45">(V14)*(V11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>244.89443117404517</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>246.83317875417302</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AG13" si="20">(AC14)*(AC11/12)</f>
+        <f t="shared" ref="AD13:AG13" si="46">(AC14)*(AC11/12)</f>
         <v>256.75958757105462</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="20"/>
-        <v>10211.372030501048</v>
+        <f t="shared" si="46"/>
+        <v>10211.372030501056</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="20"/>
-        <v>10292.212059075848</v>
+        <f t="shared" si="46"/>
+        <v>10292.212059075855</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="20"/>
-        <v>10373.6920712102</v>
+        <f t="shared" si="46"/>
+        <v>10373.692071210207</v>
       </c>
       <c r="AH13" s="1">
         <f>(AG14)*(AG11/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" ref="AI13:AS13" si="21">(AH14)*(AH11/12)</f>
+        <f t="shared" ref="AI13:AS13" si="47">(AH14)*(AH11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="21"/>
-        <v>12229.893805576825</v>
+        <f t="shared" si="47"/>
+        <v>12229.893805576836</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="21"/>
-        <v>12326.713798204308</v>
+        <f t="shared" si="47"/>
+        <v>12326.713798204319</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="21"/>
-        <v>12424.30028244009</v>
+        <f t="shared" si="47"/>
+        <v>12424.300282440101</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -7327,172 +7326,172 @@
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <f>C9+C12</f>
+        <f>IF(ISBLANK(C9),B14+C13+C10+C12,C9+C12)</f>
         <v>30450</v>
       </c>
       <c r="D14" s="1">
-        <f>C14+D13+D10*1.015</f>
+        <f>IF(ISBLANK(D9),C14+D13+D10+D12,D9+D12)</f>
         <v>30614.9375</v>
       </c>
       <c r="E14" s="1">
-        <f>D14+E13+E10*1.015</f>
+        <f>IF(ISBLANK(E9),D14+E13+E10+E12,E9+E12)</f>
         <v>30780.768411458332</v>
       </c>
       <c r="F14" s="1">
-        <f>E14+F13+F10*1.015</f>
-        <v>948175.42882411357</v>
+        <f>IF(ISBLANK(F9),E14+F13+F10+F12,F9+F12)</f>
+        <v>948175.42882411368</v>
       </c>
       <c r="G14" s="1">
-        <f>F14+G13+G10*1.015</f>
-        <v>953311.37906357751</v>
+        <f>IF(ISBLANK(G9),F14+G13+G10+G12,G9+G12)</f>
+        <v>953311.37906357762</v>
       </c>
       <c r="H14" s="1">
-        <f>G14+H13+H10*1.015</f>
-        <v>958475.14903350524</v>
+        <f>IF(ISBLANK(H9),G14+H13+H10+H12,H9+H12)</f>
+        <v>958475.14903350535</v>
       </c>
       <c r="I14" s="1">
-        <f>I9+I12</f>
+        <f>IF(ISBLANK(I9),H14+I13+I10+I12,I9+I12)</f>
         <v>30450</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:T14" si="22">I14+J13+J10*1.015</f>
+        <f>IF(ISBLANK(J9),I14+J13+J10+J12,J9+J12)</f>
         <v>30691.0625</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(K9),J14+K13+K10+K12,K9+K12)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(L9),K14+L13+L10+L12,L9+L12)</f>
         <v>31178.92784263238</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(M9),L14+M13+M10+M12,M9+M12)</f>
         <v>31425.761021386552</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(N9),M14+N13+N10+N12,N9+N12)</f>
         <v>31674.548296139197</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(O9),N14+O13+O10+O12,O9+O12)</f>
         <v>31925.305136816965</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(P9),O14+P13+P10+P12,P9+P12)</f>
         <v>32178.047135816767</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(Q9),P14+Q13+Q10+Q12,Q9+Q12)</f>
         <v>32432.790008975317</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="22"/>
-        <v>1097416.5169967287</v>
+        <f>IF(ISBLANK(R9),Q14+R13+R10+R12,R9+R12)</f>
+        <v>1097416.5169967292</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="22"/>
-        <v>1106104.3977562862</v>
+        <f>IF(ISBLANK(S9),R14+S13+S10+S12,S9+S12)</f>
+        <v>1106104.3977562867</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="22"/>
-        <v>1114861.0575718568</v>
+        <f>IF(ISBLANK(T9),S14+T13+T10+T12,T9+T12)</f>
+        <v>1114861.0575718572</v>
       </c>
       <c r="U14" s="1">
-        <f>U9+U12</f>
+        <f>IF(ISBLANK(U9),T14+U13+U10+U12,U9+U12)</f>
         <v>30450</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ref="V14:AF14" si="23">U14+V13+V10*1.015</f>
+        <f>IF(ISBLANK(V9),U14+V13+V10+V12,V9+V12)</f>
         <v>30691.0625</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(W9),V14+W13+W10+W12,W9+W12)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(X9),W14+X13+X10+X12,X9+X12)</f>
         <v>31178.92784263238</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(Y9),X14+Y13+Y10+Y12,Y9+Y12)</f>
         <v>31425.761021386552</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(Z9),Y14+Z13+Z10+Z12,Z9+Z12)</f>
         <v>31674.548296139197</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(AA9),Z14+AA13+AA10+AA12,AA9+AA12)</f>
         <v>31925.305136816965</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(AB9),AA14+AB13+AB10+AB12,AB9+AB12)</f>
         <v>32178.047135816767</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="23"/>
+        <f>IF(ISBLANK(AC9),AB14+AC13+AC10+AC12,AC9+AC12)</f>
         <v>32432.790008975317</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="23"/>
-        <v>1289857.5196422376</v>
+        <f>IF(ISBLANK(AD9),AC14+AD13+AD10+AD12,AD9+AD12)</f>
+        <v>1289857.5196422385</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="23"/>
-        <v>1300068.8916727386</v>
+        <f>IF(ISBLANK(AE9),AD14+AE13+AE10+AE12,AE9+AE12)</f>
+        <v>1300068.8916727395</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="23"/>
-        <v>1310361.1037318145</v>
+        <f>IF(ISBLANK(AF9),AE14+AF13+AF10+AF12,AF9+AF12)</f>
+        <v>1310361.1037318155</v>
       </c>
       <c r="AG14" s="1">
-        <f>AG9+AG12</f>
+        <f>IF(ISBLANK(AG9),AF14+AG13+AG10+AG12,AG9+AG12)</f>
         <v>30450</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" ref="AH14:AR14" si="24">AG14+AH13+AH10*1.015</f>
+        <f>IF(ISBLANK(AH9),AG14+AH13+AH10+AH12,AH9+AH12)</f>
         <v>30691.0625</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AI9),AH14+AI13+AI10+AI12,AI9+AI12)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AJ9),AI14+AJ13+AJ10+AJ12,AJ9+AJ12)</f>
         <v>31178.92784263238</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AK9),AJ14+AK13+AK10+AK12,AK9+AK12)</f>
         <v>31425.761021386552</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AL9),AK14+AL13+AL10+AL12,AL9+AL12)</f>
         <v>31674.548296139197</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AM9),AL14+AM13+AM10+AM12,AM9+AM12)</f>
         <v>31925.305136816965</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AN9),AM14+AN13+AN10+AN12,AN9+AN12)</f>
         <v>32178.047135816767</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="24"/>
+        <f>IF(ISBLANK(AO9),AN14+AO13+AO10+AO12,AO9+AO12)</f>
         <v>32432.790008975317</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="24"/>
-        <v>1544828.6912307567</v>
+        <f>IF(ISBLANK(AP9),AO14+AP13+AP10+AP12,AP9+AP12)</f>
+        <v>1544828.6912307581</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="24"/>
-        <v>1557058.5850363334</v>
+        <f>IF(ISBLANK(AQ9),AP14+AQ13+AQ10+AQ12,AQ9+AQ12)</f>
+        <v>1557058.5850363348</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="24"/>
-        <v>1569385.2988345376</v>
+        <f>IF(ISBLANK(AR9),AQ14+AR13+AR10+AR12,AR9+AR12)</f>
+        <v>1569385.298834539</v>
       </c>
       <c r="AS14" s="1">
         <f>AS9+AS10</f>
@@ -7512,7 +7511,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="9">
         <f>H14*(H11/12+1)</f>
-        <v>963666.88942410331</v>
+        <v>963666.88942410343</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -7527,7 +7526,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="9">
         <f>T14*(T11/12+1)</f>
-        <v>1123687.0409443006</v>
+        <v>1123687.0409443011</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -7542,7 +7541,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="9">
         <f>AF14*(AF11/12+1)</f>
-        <v>1320734.7958030247</v>
+        <v>1320734.7958030256</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -7557,7 +7556,7 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="9">
         <f>AR14*(AR11/12+1)</f>
-        <v>1581809.5991169775</v>
+        <v>1581809.5991169789</v>
       </c>
     </row>
     <row r="16" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7629,7 +7628,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="6">
         <f>I15 - 30000</f>
-        <v>933666.88942410331</v>
+        <v>933666.88942410343</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -7644,7 +7643,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="6">
         <f>U15 - 30000</f>
-        <v>1093687.0409443006</v>
+        <v>1093687.0409443011</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -7659,7 +7658,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="6">
         <f>AG15 - 30000</f>
-        <v>1290734.7958030247</v>
+        <v>1290734.7958030256</v>
       </c>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
@@ -7674,7 +7673,7 @@
       <c r="AR17" s="4"/>
       <c r="AS17" s="6">
         <f>AS15</f>
-        <v>1581809.5991169775</v>
+        <v>1581809.5991169789</v>
       </c>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
@@ -7819,75 +7818,75 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:L19" si="25">0.015*F16</f>
+        <f t="shared" ref="F19:L19" si="48">0.015*F16</f>
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
         <f>0.015*I17</f>
-        <v>14005.003341361549</v>
+        <v>14005.003341361551</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>450</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:W19" si="26">0.015*M16</f>
+        <f t="shared" ref="M19:W19" si="49">0.015*M16</f>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
         <f>0.015*U17</f>
-        <v>16405.305614164507</v>
+        <v>16405.305614164514</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X19" s="1">
@@ -7895,47 +7894,47 @@
         <v>450</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:AC19" si="27">0.015*Y16</f>
+        <f t="shared" ref="Y19:AC19" si="50">0.015*Y16</f>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AI19" si="28">0.015*AD16</f>
+        <f t="shared" ref="AD19:AI19" si="51">0.015*AD16</f>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
         <f>0.015*AG17</f>
-        <v>19361.021937045371</v>
+        <v>19361.021937045381</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
@@ -7943,51 +7942,51 @@
         <v>450</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" ref="AK19:AV19" si="29">0.015*AK16</f>
+        <f t="shared" ref="AK19:AV19" si="52">0.015*AK16</f>
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AS19" s="1">
         <f>0.015*AS17</f>
-        <v>23727.143986754661</v>
+        <v>23727.143986754683</v>
       </c>
       <c r="AT19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8002,168 +8001,168 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:L20" si="30">(G21)*(G18/12)</f>
+        <f t="shared" ref="H20:L20" si="53">(G21)*(G18/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="53"/>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="30"/>
-        <v>5300.855031003739</v>
+        <f t="shared" si="53"/>
+        <v>5300.8550310037408</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="30"/>
-        <v>5329.5679957550092</v>
+        <f t="shared" si="53"/>
+        <v>5329.567995755011</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="30"/>
-        <v>5358.4364890653487</v>
+        <f t="shared" si="53"/>
+        <v>5358.4364890653505</v>
       </c>
       <c r="M20" s="1">
         <f>(L21)*(L18/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:X20" si="31">(M21)*(M18/12)</f>
+        <f t="shared" ref="N20:X20" si="54">(M21)*(M18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>244.89443117404517</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>246.83317875417302</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>248.78727475264355</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>250.75684067776868</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>252.74199899980098</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>254.74287315854943</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>256.75958757105462</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="31"/>
-        <v>9047.0233445605081</v>
+        <f t="shared" si="54"/>
+        <v>9047.0233445605136</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="31"/>
-        <v>9118.6456127049441</v>
+        <f t="shared" si="54"/>
+        <v>9118.6456127049514</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="31"/>
-        <v>9190.8348904721934</v>
+        <f t="shared" si="54"/>
+        <v>9190.8348904721988</v>
       </c>
       <c r="Y20" s="1">
         <f>(X21)*(X18/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" ref="Z20:AC20" si="32">(Y21)*(Y18/12)</f>
+        <f t="shared" ref="Z20:AC20" si="55">(Y21)*(Y18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="55"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="55"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="55"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" ref="AD20:AJ20" si="33">(AC21)*(AC18/12)</f>
+        <f t="shared" ref="AD20:AJ20" si="56">(AC21)*(AC18/12)</f>
         <v>250.75684067776868</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="56"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="56"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="56"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="33"/>
-        <v>10630.384158081548</v>
+        <f t="shared" si="56"/>
+        <v>10630.384158081555</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="33"/>
-        <v>10714.541365999694</v>
+        <f t="shared" si="56"/>
+        <v>10714.541365999701</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="33"/>
-        <v>10799.364818480524</v>
+        <f t="shared" si="56"/>
+        <v>10799.364818480532</v>
       </c>
       <c r="AK20" s="1">
         <f>(AJ21)*(AJ18/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" ref="AL20:AV20" si="34">(AK21)*(AK18/12)</f>
+        <f t="shared" ref="AL20:AV20" si="57">(AK21)*(AK18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AS20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" si="34"/>
-        <v>12969.291483877207</v>
+        <f t="shared" si="57"/>
+        <v>12969.291483877218</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" si="34"/>
-        <v>13071.965041457901</v>
+        <f t="shared" si="57"/>
+        <v>13071.965041457912</v>
       </c>
       <c r="AV20" s="1">
-        <f t="shared" si="34"/>
-        <v>13175.451431369444</v>
+        <f t="shared" si="57"/>
+        <v>13175.451431369454</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
@@ -8172,172 +8171,172 @@
         <v>7</v>
       </c>
       <c r="F21" s="1">
-        <f>F16+F19</f>
+        <f>IF(ISBLANK(F16),E21+F20+F17+F19,F16+F19)</f>
         <v>30450</v>
       </c>
       <c r="G21" s="1">
-        <f>F21+G20+G17*1.015</f>
+        <f>IF(ISBLANK(G16),F21+G20+G17+G19,G16+G19)</f>
         <v>30614.9375</v>
       </c>
       <c r="H21" s="1">
-        <f>G21+H20+H17*1.015</f>
+        <f>IF(ISBLANK(H16),G21+H20+H17+H19,H16+H19)</f>
         <v>30780.768411458332</v>
       </c>
       <c r="I21" s="1">
-        <f>H21+I20+I17*1.015</f>
-        <v>978619.39033915184</v>
+        <f t="shared" ref="I21:AU21" si="58">IF(ISBLANK(I16),H21+I20+I17+I19,I16+I19)</f>
+        <v>978619.39033915207</v>
       </c>
       <c r="J21" s="1">
-        <f>I21+J20+J17*1.015</f>
-        <v>983920.24537015555</v>
+        <f t="shared" si="58"/>
+        <v>983920.24537015578</v>
       </c>
       <c r="K21" s="1">
-        <f>J21+K20+K17*1.015</f>
-        <v>989249.81336591055</v>
+        <f t="shared" si="58"/>
+        <v>989249.81336591078</v>
       </c>
       <c r="L21" s="1">
-        <f>L16+L19</f>
+        <f t="shared" si="58"/>
         <v>30450</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:W21" si="35">L21+M20+M17*1.015</f>
+        <f t="shared" si="58"/>
         <v>30691.0625</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>30934.033411458335</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>31178.92784263238</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>31425.761021386552</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>31674.548296139197</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>31925.305136816965</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>32178.047135816767</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>32432.790008975317</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="35"/>
-        <v>1142781.8961550114</v>
+        <f t="shared" si="58"/>
+        <v>1142781.8961550121</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="35"/>
-        <v>1151828.9194995719</v>
+        <f t="shared" si="58"/>
+        <v>1151828.9194995726</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="35"/>
-        <v>1160947.5651122769</v>
+        <f t="shared" si="58"/>
+        <v>1160947.5651122776</v>
       </c>
       <c r="X21" s="1">
-        <f>X16+X19</f>
+        <f t="shared" si="58"/>
         <v>30450</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" ref="Y21:AI21" si="36">X21+Y20+Y17*1.015</f>
+        <f t="shared" si="58"/>
         <v>30691.0625</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="36"/>
-        <v>1342785.3673366164</v>
+        <f t="shared" si="58"/>
+        <v>1342785.3673366173</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="36"/>
-        <v>1353415.751494698</v>
+        <f t="shared" si="58"/>
+        <v>1353415.7514946989</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="36"/>
-        <v>1364130.2928606977</v>
+        <f t="shared" si="58"/>
+        <v>1364130.2928606987</v>
       </c>
       <c r="AJ21" s="1">
-        <f>AJ16+AJ19</f>
+        <f t="shared" si="58"/>
         <v>30450</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" ref="AK21:AU21" si="37">AJ21+AK20+AK17*1.015</f>
+        <f t="shared" si="58"/>
         <v>30691.0625</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" si="37"/>
-        <v>1638226.2927002786</v>
+        <f t="shared" si="58"/>
+        <v>1638226.29270028</v>
       </c>
       <c r="AT21" s="1">
-        <f t="shared" si="37"/>
-        <v>1651195.5841841558</v>
+        <f t="shared" si="58"/>
+        <v>1651195.5841841572</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="37"/>
-        <v>1664267.5492256137</v>
+        <f t="shared" si="58"/>
+        <v>1664267.5492256151</v>
       </c>
       <c r="AV21" s="1">
         <f>AV16+AV17</f>
@@ -8357,7 +8356,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="9">
         <f>K21*(K18/12+1)</f>
-        <v>994608.24985497585</v>
+        <v>994608.24985497608</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -8372,7 +8371,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="9">
         <f>W21*(W18/12+1)</f>
-        <v>1170138.4000027489</v>
+        <v>1170138.4000027496</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -8387,7 +8386,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="9">
         <f>AI21*(AI18/12+1)</f>
-        <v>1374929.6576791781</v>
+        <v>1374929.657679179</v>
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -8402,7 +8401,7 @@
       <c r="AU22" s="1"/>
       <c r="AV22" s="9">
         <f>AU21*(AU18/12+1)</f>
-        <v>1677443.0006569829</v>
+        <v>1677443.0006569845</v>
       </c>
     </row>
     <row r="23" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8486,7 +8485,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="6">
         <f>L22 - 30000</f>
-        <v>964608.24985497585</v>
+        <v>964608.24985497608</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -8501,7 +8500,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="6">
         <f>X22 - 30000</f>
-        <v>1140138.4000027489</v>
+        <v>1140138.4000027496</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8516,7 +8515,7 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="6">
         <f>AJ22 - 30000</f>
-        <v>1344929.6576791781</v>
+        <v>1344929.657679179</v>
       </c>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
@@ -8531,7 +8530,7 @@
       <c r="AU24" s="4"/>
       <c r="AV24" s="6">
         <f>AV22</f>
-        <v>1677443.0006569829</v>
+        <v>1677443.0006569845</v>
       </c>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
@@ -8698,47 +8697,47 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:N26" si="38">0.015*D23</f>
+        <f t="shared" ref="D26:N26" si="59">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
         <f>0.015*L24</f>
-        <v>14469.123747824637</v>
+        <v>14469.12374782464</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
@@ -8746,47 +8745,47 @@
         <v>450</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" ref="P26:Z26" si="39">0.015*P23</f>
+        <f t="shared" ref="P26:Z26" si="60">0.015*P23</f>
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
         <f>0.015*X24</f>
-        <v>17102.076000041234</v>
+        <v>17102.076000041245</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
@@ -8794,47 +8793,47 @@
         <v>450</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" ref="AB26:AC26" si="40">0.015*AB23</f>
+        <f t="shared" ref="AB26:AC26" si="61">0.015*AB23</f>
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AL26" si="41">0.015*AD23</f>
+        <f t="shared" ref="AD26:AL26" si="62">0.015*AD23</f>
         <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <f>0.015*AJ24</f>
-        <v>20173.94486518767</v>
+        <v>20173.944865187685</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AM26" s="1">
@@ -8842,51 +8841,51 @@
         <v>450</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" ref="AN26:AY26" si="42">0.015*AN23</f>
+        <f t="shared" ref="AN26:AY26" si="63">0.015*AN23</f>
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AV26" s="1">
         <f>0.015*AV24</f>
-        <v>25161.645009854743</v>
+        <v>25161.645009854768</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AX26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -8901,192 +8900,192 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:O27" si="43">(D28)*(D25/12)</f>
+        <f t="shared" ref="E27:O27" si="64">(D28)*(D25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="43"/>
-        <v>8009.8214753281627</v>
+        <f t="shared" si="64"/>
+        <v>8009.8214753281654</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="43"/>
-        <v>8073.2325620078436</v>
+        <f t="shared" si="64"/>
+        <v>8073.2325620078464</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="43"/>
-        <v>8137.1456531237391</v>
+        <f t="shared" si="64"/>
+        <v>8137.1456531237418</v>
       </c>
       <c r="P27" s="1">
         <f>(O28)*(O25/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ref="Q27:AA27" si="44">(P28)*(P25/12)</f>
+        <f t="shared" ref="Q27:AA27" si="65">(P28)*(P25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>244.89443117404517</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>246.83317875417302</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>248.78727475264355</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>250.75684067776868</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>252.74199899980098</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>254.74287315854943</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>256.75958757105462</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="44"/>
-        <v>9420.2793693280819</v>
+        <f t="shared" si="65"/>
+        <v>9420.2793693280892</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="44"/>
-        <v>9494.85658100193</v>
+        <f t="shared" si="65"/>
+        <v>9494.8565810019372</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="44"/>
-        <v>9570.0241956015288</v>
+        <f t="shared" si="65"/>
+        <v>9570.0241956015361</v>
       </c>
       <c r="AB27" s="1">
         <f>(AA28)*(AA25/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27" si="45">(AB28)*(AB25/12)</f>
+        <f t="shared" ref="AC27" si="66">(AB28)*(AB25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" ref="AD27:AM27" si="46">(AC28)*(AC25/12)</f>
+        <f t="shared" ref="AD27:AM27" si="67">(AC28)*(AC25/12)</f>
         <v>244.89443117404517</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="46"/>
-        <v>11065.862454448888</v>
+        <f t="shared" si="67"/>
+        <v>11065.862454448896</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="46"/>
-        <v>11153.467198879942</v>
+        <f t="shared" si="67"/>
+        <v>11153.467198879949</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="46"/>
-        <v>11241.765480871074</v>
+        <f t="shared" si="67"/>
+        <v>11241.765480871081</v>
       </c>
       <c r="AN27" s="1">
         <f>(AM28)*(AM25/12)</f>
         <v>241.06250000000003</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" ref="AO27:AY27" si="47">(AN28)*(AN25/12)</f>
+        <f t="shared" ref="AO27:AY27" si="68">(AN28)*(AN25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="47"/>
-        <v>13737.74571250179</v>
+        <f t="shared" si="68"/>
+        <v>13737.745712501805</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="47"/>
-        <v>13846.502866059096</v>
+        <f t="shared" si="68"/>
+        <v>13846.502866059111</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="47"/>
-        <v>13956.121013748731</v>
+        <f t="shared" si="68"/>
+        <v>13956.121013748745</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
@@ -9095,196 +9094,196 @@
         <v>7</v>
       </c>
       <c r="C28" s="1">
-        <f>C23+C26</f>
+        <f>IF(ISBLANK(C23),B28+C27+C24+C26,C23+C26)</f>
         <v>30450</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:N28" si="48">C28+D27+D24*1.015</f>
+        <f>IF(ISBLANK(D23),C28+D27+D24+D26,D23+D26)</f>
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="E28:AX28" si="69">IF(ISBLANK(E23),D28+E27+E24+E26,E23+E26)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="48"/>
-        <v>1011766.9231993468</v>
+        <f t="shared" si="69"/>
+        <v>1011766.9231993471</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="48"/>
-        <v>1019776.7446746749</v>
+        <f t="shared" si="69"/>
+        <v>1019776.7446746753</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="48"/>
-        <v>1027849.9772366828</v>
+        <f t="shared" si="69"/>
+        <v>1027849.9772366831</v>
       </c>
       <c r="O28" s="1">
-        <f>O23+O26</f>
+        <f t="shared" si="69"/>
         <v>30450</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" ref="P28:Z28" si="49">O28+P27+P24*1.015</f>
+        <f t="shared" si="69"/>
         <v>30691.0625</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>30934.033411458335</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>31178.92784263238</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>31425.761021386552</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>31674.548296139197</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>31925.305136816965</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>32178.047135816767</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>32432.790008975317</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="49"/>
-        <v>1189930.0255993365</v>
+        <f t="shared" si="69"/>
+        <v>1189930.0255993374</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="49"/>
-        <v>1199350.3049686647</v>
+        <f t="shared" si="69"/>
+        <v>1199350.3049686656</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="49"/>
-        <v>1208845.1615496667</v>
+        <f t="shared" si="69"/>
+        <v>1208845.1615496676</v>
       </c>
       <c r="AA28" s="1">
-        <f>AA23+AA26</f>
+        <f t="shared" si="69"/>
         <v>30450</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" ref="AB28:AL28" si="50">AA28+AB27+AB24*1.015</f>
+        <f t="shared" si="69"/>
         <v>30691.0625</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="50"/>
-        <v>1397793.1521409121</v>
+        <f t="shared" si="69"/>
+        <v>1397793.1521409131</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="50"/>
-        <v>1408859.014595361</v>
+        <f t="shared" si="69"/>
+        <v>1408859.0145953619</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="50"/>
-        <v>1420012.4817942409</v>
+        <f t="shared" si="69"/>
+        <v>1420012.4817942418</v>
       </c>
       <c r="AM28" s="1">
-        <f>AM23+AM26</f>
+        <f t="shared" si="69"/>
         <v>30450</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" ref="AN28:AX28" si="51">AM28+AN27+AN24*1.015</f>
+        <f t="shared" si="69"/>
         <v>30691.0625</v>
       </c>
       <c r="AO28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AP28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AS28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AT28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AV28" s="1">
-        <f t="shared" si="51"/>
-        <v>1735294.1952633839</v>
+        <f t="shared" si="69"/>
+        <v>1735294.1952633858</v>
       </c>
       <c r="AW28" s="1">
-        <f t="shared" si="51"/>
-        <v>1749031.9409758856</v>
+        <f t="shared" si="69"/>
+        <v>1749031.9409758875</v>
       </c>
       <c r="AX28" s="1">
-        <f t="shared" si="51"/>
-        <v>1762878.4438419447</v>
+        <f t="shared" si="69"/>
+        <v>1762878.4438419465</v>
       </c>
       <c r="AY28" s="1">
         <f>AY23+AY24</f>
@@ -9310,7 +9309,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="9">
         <f>N28*(N25/12+1)</f>
-        <v>1035987.1228898064</v>
+        <v>1035987.1228898067</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -9325,7 +9324,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="9">
         <f>Z28*(Z25/12+1)</f>
-        <v>1218415.1857452681</v>
+        <v>1218415.1857452691</v>
       </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -9340,7 +9339,7 @@
       <c r="AL29" s="1"/>
       <c r="AM29" s="9">
         <f>AL28*(AL25/12+1)</f>
-        <v>1431254.2472751117</v>
+        <v>1431254.2472751127</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -9355,7 +9354,7 @@
       <c r="AX29" s="1"/>
       <c r="AY29" s="9">
         <f>AX28*(AX25/12+1)</f>
-        <v>1776834.5648556931</v>
+        <v>1776834.5648556952</v>
       </c>
     </row>
     <row r="30" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/Olymp/Moscow/2014/answers/E/Вклады.xlsx
+++ b/Olymp/Moscow/2014/answers/E/Вклады.xlsx
@@ -4646,7 +4646,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,7 +5730,7 @@
   <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6501,11 +6501,11 @@
         <v>954100</v>
       </c>
       <c r="D7" s="1">
-        <f>IF(ISBLANK(D2),C7+D6+D3+D5,D2+D5)</f>
+        <f t="shared" ref="D7:AO7" si="8">IF(ISBLANK(D2),C7+D6+D3+D5,D2+D5)</f>
         <v>957280.33333333337</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:L7" si="8">IF(ISBLANK(E2),D7+E6+E3+E5,E2+E5)</f>
+        <f t="shared" si="8"/>
         <v>960471.26777777786</v>
       </c>
       <c r="F7" s="1">
@@ -6537,119 +6537,119 @@
         <v>31925.305136816965</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" ref="M7" si="9">IF(ISBLANK(M2),L7+M6+M3+M5,M2+M5)</f>
+        <f t="shared" si="8"/>
         <v>32178.047135816767</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7" si="10">IF(ISBLANK(N2),M7+N6+N3+N5,N2+N5)</f>
+        <f t="shared" si="8"/>
         <v>32432.790008975317</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7" si="11">IF(ISBLANK(O2),N7+O6+O3+O5,O2+O5)</f>
+        <f t="shared" si="8"/>
         <v>1053766.4793297001</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" ref="P7" si="12">IF(ISBLANK(P2),O7+P6+P3+P5,P2+P5)</f>
+        <f t="shared" si="8"/>
         <v>1062108.7972910602</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ref="Q7" si="13">IF(ISBLANK(Q2),P7+Q6+Q3+Q5,Q2+Q5)</f>
+        <f t="shared" si="8"/>
         <v>1070517.1586029478</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R7" si="14">IF(ISBLANK(R2),Q7+R6+R3+R5,R2+R5)</f>
+        <f t="shared" si="8"/>
         <v>30450</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" ref="S7" si="15">IF(ISBLANK(S2),R7+S6+S3+S5,S2+S5)</f>
+        <f t="shared" si="8"/>
         <v>30691.0625</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" ref="T7" si="16">IF(ISBLANK(T2),S7+T6+T3+T5,T2+T5)</f>
+        <f t="shared" si="8"/>
         <v>30934.033411458335</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7" si="17">IF(ISBLANK(U2),T7+U6+U3+U5,U2+U5)</f>
+        <f t="shared" si="8"/>
         <v>31178.92784263238</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" ref="V7" si="18">IF(ISBLANK(V2),U7+V6+V3+V5,V2+V5)</f>
+        <f t="shared" si="8"/>
         <v>31425.761021386552</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" ref="W7" si="19">IF(ISBLANK(W2),V7+W6+W3+W5,W2+W5)</f>
+        <f t="shared" si="8"/>
         <v>31674.548296139197</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" ref="X7" si="20">IF(ISBLANK(X2),W7+X6+X3+X5,X2+X5)</f>
+        <f t="shared" si="8"/>
         <v>31925.305136816965</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" ref="Y7" si="21">IF(ISBLANK(Y2),X7+Y6+Y3+Y5,Y2+Y5)</f>
+        <f t="shared" si="8"/>
         <v>32178.047135816767</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" ref="Z7" si="22">IF(ISBLANK(Z2),Y7+Z6+Z3+Z5,Z2+Z5)</f>
+        <f t="shared" si="8"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" ref="AA7" si="23">IF(ISBLANK(AA2),Z7+AA6+AA3+AA5,AA2+AA5)</f>
+        <f t="shared" si="8"/>
         <v>1238930.9631279944</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" ref="AB7" si="24">IF(ISBLANK(AB2),AA7+AB6+AB3+AB5,AB2+AB5)</f>
+        <f t="shared" si="8"/>
         <v>1248739.166586091</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" ref="AC7" si="25">IF(ISBLANK(AC2),AB7+AC6+AC3+AC5,AC2+AC5)</f>
+        <f t="shared" si="8"/>
         <v>1258625.0183215642</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" ref="AD7" si="26">IF(ISBLANK(AD2),AC7+AD6+AD3+AD5,AD2+AD5)</f>
+        <f t="shared" si="8"/>
         <v>30450</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" ref="AE7" si="27">IF(ISBLANK(AE2),AD7+AE6+AE3+AE5,AE2+AE5)</f>
+        <f t="shared" si="8"/>
         <v>30691.0625</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" ref="AF7" si="28">IF(ISBLANK(AF2),AE7+AF6+AF3+AF5,AF2+AF5)</f>
+        <f t="shared" si="8"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" ref="AG7" si="29">IF(ISBLANK(AG2),AF7+AG6+AG3+AG5,AG2+AG5)</f>
+        <f t="shared" si="8"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" ref="AH7" si="30">IF(ISBLANK(AH2),AG7+AH6+AH3+AH5,AH2+AH5)</f>
+        <f t="shared" si="8"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" ref="AI7" si="31">IF(ISBLANK(AI2),AH7+AI6+AI3+AI5,AI2+AI5)</f>
+        <f t="shared" si="8"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" ref="AJ7" si="32">IF(ISBLANK(AJ2),AI7+AJ6+AJ3+AJ5,AJ2+AJ5)</f>
+        <f t="shared" si="8"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" ref="AK7" si="33">IF(ISBLANK(AK2),AJ7+AK6+AK3+AK5,AK2+AK5)</f>
+        <f t="shared" si="8"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" ref="AL7" si="34">IF(ISBLANK(AL2),AK7+AL6+AL3+AL5,AL2+AL5)</f>
+        <f t="shared" si="8"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" ref="AM7" si="35">IF(ISBLANK(AM2),AL7+AM6+AM3+AM5,AM2+AM5)</f>
+        <f t="shared" si="8"/>
         <v>1454962.6105807859</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" ref="AN7" si="36">IF(ISBLANK(AN2),AM7+AN6+AN3+AN5,AN2+AN5)</f>
+        <f t="shared" si="8"/>
         <v>1466481.064581217</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" ref="AO7" si="37">IF(ISBLANK(AO2),AN7+AO6+AO3+AO5,AO2+AO5)</f>
+        <f t="shared" si="8"/>
         <v>1478090.706342485</v>
       </c>
       <c r="AP7" s="1">
@@ -6973,15 +6973,15 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:I12" si="38">0.015*C9</f>
+        <f t="shared" ref="C12:I12" si="9">0.015*C9</f>
         <v>450</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
@@ -6989,47 +6989,47 @@
         <v>13555.092580055565</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:T12" si="39">0.015*J9</f>
+        <f t="shared" ref="J12:T12" si="10">0.015*J9</f>
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R12" s="1">
@@ -7037,11 +7037,11 @@
         <v>15734.881291628315</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U12" s="1">
@@ -7049,35 +7049,35 @@
         <v>450</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:AC12" si="40">0.015*V9</f>
+        <f t="shared" ref="V12:AC12" si="11">0.015*V9</f>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
@@ -7085,11 +7085,11 @@
         <v>18578.836995749145</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" ref="AE12:AF12" si="41">0.015*AE9</f>
+        <f t="shared" ref="AE12:AF12" si="12">0.015*AE9</f>
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG12" s="1">
@@ -7097,35 +7097,35 @@
         <v>450</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" ref="AH12:AS12" si="42">0.015*AH9</f>
+        <f t="shared" ref="AH12:AS12" si="13">0.015*AH9</f>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP12" s="1">
@@ -7133,15 +7133,15 @@
         <v>22346.88386651544</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7156,23 +7156,23 @@
         <v>164.9375</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:I13" si="43">(D14)*(D11/12)</f>
+        <f t="shared" ref="E13:I13" si="14">(D14)*(D11/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="14"/>
         <v>166.72916222873263</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="14"/>
         <v>5135.9502394639494</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="14"/>
         <v>5163.7699699277127</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="14"/>
         <v>5191.7403905981546</v>
       </c>
       <c r="J13" s="1">
@@ -7180,47 +7180,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:U13" si="44">(J14)*(J11/12)</f>
+        <f t="shared" ref="K13:U13" si="15">(J14)*(J11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>244.89443117404517</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>246.83317875417302</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>248.78727475264355</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>250.75684067776868</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>252.74199899980098</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>254.74287315854943</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>256.75958757105462</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>8687.8807595574399</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>8756.6598155706033</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="15"/>
         <v>8825.9833724438704</v>
       </c>
       <c r="V13" s="1">
@@ -7228,47 +7228,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ref="W13:AC13" si="45">(V14)*(V11/12)</f>
+        <f t="shared" ref="W13:AC13" si="16">(V14)*(V11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>244.89443117404517</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>246.83317875417302</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AG13" si="46">(AC14)*(AC11/12)</f>
+        <f t="shared" ref="AD13:AG13" si="17">(AC14)*(AC11/12)</f>
         <v>256.75958757105462</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="17"/>
         <v>10211.372030501056</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="17"/>
         <v>10292.212059075855</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="17"/>
         <v>10373.692071210207</v>
       </c>
       <c r="AH13" s="1">
@@ -7276,47 +7276,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" ref="AI13:AS13" si="47">(AH14)*(AH11/12)</f>
+        <f t="shared" ref="AI13:AS13" si="18">(AH14)*(AH11/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>12229.893805576836</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>12326.713798204319</v>
       </c>
       <c r="AS13" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>12424.300282440101</v>
       </c>
     </row>
@@ -7326,171 +7326,171 @@
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <f>IF(ISBLANK(C9),B14+C13+C10+C12,C9+C12)</f>
+        <f t="shared" ref="C14:AR14" si="19">IF(ISBLANK(C9),B14+C13+C10+C12,C9+C12)</f>
         <v>30450</v>
       </c>
       <c r="D14" s="1">
-        <f>IF(ISBLANK(D9),C14+D13+D10+D12,D9+D12)</f>
+        <f t="shared" si="19"/>
         <v>30614.9375</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(ISBLANK(E9),D14+E13+E10+E12,E9+E12)</f>
+        <f t="shared" si="19"/>
         <v>30780.768411458332</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(ISBLANK(F9),E14+F13+F10+F12,F9+F12)</f>
+        <f t="shared" si="19"/>
         <v>948175.42882411368</v>
       </c>
       <c r="G14" s="1">
-        <f>IF(ISBLANK(G9),F14+G13+G10+G12,G9+G12)</f>
+        <f t="shared" si="19"/>
         <v>953311.37906357762</v>
       </c>
       <c r="H14" s="1">
-        <f>IF(ISBLANK(H9),G14+H13+H10+H12,H9+H12)</f>
+        <f t="shared" si="19"/>
         <v>958475.14903350535</v>
       </c>
       <c r="I14" s="1">
-        <f>IF(ISBLANK(I9),H14+I13+I10+I12,I9+I12)</f>
+        <f t="shared" si="19"/>
         <v>30450</v>
       </c>
       <c r="J14" s="1">
-        <f>IF(ISBLANK(J9),I14+J13+J10+J12,J9+J12)</f>
+        <f t="shared" si="19"/>
         <v>30691.0625</v>
       </c>
       <c r="K14" s="1">
-        <f>IF(ISBLANK(K9),J14+K13+K10+K12,K9+K12)</f>
+        <f t="shared" si="19"/>
         <v>30934.033411458335</v>
       </c>
       <c r="L14" s="1">
-        <f>IF(ISBLANK(L9),K14+L13+L10+L12,L9+L12)</f>
+        <f t="shared" si="19"/>
         <v>31178.92784263238</v>
       </c>
       <c r="M14" s="1">
-        <f>IF(ISBLANK(M9),L14+M13+M10+M12,M9+M12)</f>
+        <f t="shared" si="19"/>
         <v>31425.761021386552</v>
       </c>
       <c r="N14" s="1">
-        <f>IF(ISBLANK(N9),M14+N13+N10+N12,N9+N12)</f>
+        <f t="shared" si="19"/>
         <v>31674.548296139197</v>
       </c>
       <c r="O14" s="1">
-        <f>IF(ISBLANK(O9),N14+O13+O10+O12,O9+O12)</f>
+        <f t="shared" si="19"/>
         <v>31925.305136816965</v>
       </c>
       <c r="P14" s="1">
-        <f>IF(ISBLANK(P9),O14+P13+P10+P12,P9+P12)</f>
+        <f t="shared" si="19"/>
         <v>32178.047135816767</v>
       </c>
       <c r="Q14" s="1">
-        <f>IF(ISBLANK(Q9),P14+Q13+Q10+Q12,Q9+Q12)</f>
+        <f t="shared" si="19"/>
         <v>32432.790008975317</v>
       </c>
       <c r="R14" s="1">
-        <f>IF(ISBLANK(R9),Q14+R13+R10+R12,R9+R12)</f>
+        <f t="shared" si="19"/>
         <v>1097416.5169967292</v>
       </c>
       <c r="S14" s="1">
-        <f>IF(ISBLANK(S9),R14+S13+S10+S12,S9+S12)</f>
+        <f t="shared" si="19"/>
         <v>1106104.3977562867</v>
       </c>
       <c r="T14" s="1">
-        <f>IF(ISBLANK(T9),S14+T13+T10+T12,T9+T12)</f>
+        <f t="shared" si="19"/>
         <v>1114861.0575718572</v>
       </c>
       <c r="U14" s="1">
-        <f>IF(ISBLANK(U9),T14+U13+U10+U12,U9+U12)</f>
+        <f t="shared" si="19"/>
         <v>30450</v>
       </c>
       <c r="V14" s="1">
-        <f>IF(ISBLANK(V9),U14+V13+V10+V12,V9+V12)</f>
+        <f t="shared" si="19"/>
         <v>30691.0625</v>
       </c>
       <c r="W14" s="1">
-        <f>IF(ISBLANK(W9),V14+W13+W10+W12,W9+W12)</f>
+        <f t="shared" si="19"/>
         <v>30934.033411458335</v>
       </c>
       <c r="X14" s="1">
-        <f>IF(ISBLANK(X9),W14+X13+X10+X12,X9+X12)</f>
+        <f t="shared" si="19"/>
         <v>31178.92784263238</v>
       </c>
       <c r="Y14" s="1">
-        <f>IF(ISBLANK(Y9),X14+Y13+Y10+Y12,Y9+Y12)</f>
+        <f t="shared" si="19"/>
         <v>31425.761021386552</v>
       </c>
       <c r="Z14" s="1">
-        <f>IF(ISBLANK(Z9),Y14+Z13+Z10+Z12,Z9+Z12)</f>
+        <f t="shared" si="19"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AA14" s="1">
-        <f>IF(ISBLANK(AA9),Z14+AA13+AA10+AA12,AA9+AA12)</f>
+        <f t="shared" si="19"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AB14" s="1">
-        <f>IF(ISBLANK(AB9),AA14+AB13+AB10+AB12,AB9+AB12)</f>
+        <f t="shared" si="19"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AC14" s="1">
-        <f>IF(ISBLANK(AC9),AB14+AC13+AC10+AC12,AC9+AC12)</f>
+        <f t="shared" si="19"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AD14" s="1">
-        <f>IF(ISBLANK(AD9),AC14+AD13+AD10+AD12,AD9+AD12)</f>
+        <f t="shared" si="19"/>
         <v>1289857.5196422385</v>
       </c>
       <c r="AE14" s="1">
-        <f>IF(ISBLANK(AE9),AD14+AE13+AE10+AE12,AE9+AE12)</f>
+        <f t="shared" si="19"/>
         <v>1300068.8916727395</v>
       </c>
       <c r="AF14" s="1">
-        <f>IF(ISBLANK(AF9),AE14+AF13+AF10+AF12,AF9+AF12)</f>
+        <f t="shared" si="19"/>
         <v>1310361.1037318155</v>
       </c>
       <c r="AG14" s="1">
-        <f>IF(ISBLANK(AG9),AF14+AG13+AG10+AG12,AG9+AG12)</f>
+        <f t="shared" si="19"/>
         <v>30450</v>
       </c>
       <c r="AH14" s="1">
-        <f>IF(ISBLANK(AH9),AG14+AH13+AH10+AH12,AH9+AH12)</f>
+        <f t="shared" si="19"/>
         <v>30691.0625</v>
       </c>
       <c r="AI14" s="1">
-        <f>IF(ISBLANK(AI9),AH14+AI13+AI10+AI12,AI9+AI12)</f>
+        <f t="shared" si="19"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AJ14" s="1">
-        <f>IF(ISBLANK(AJ9),AI14+AJ13+AJ10+AJ12,AJ9+AJ12)</f>
+        <f t="shared" si="19"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AK14" s="1">
-        <f>IF(ISBLANK(AK9),AJ14+AK13+AK10+AK12,AK9+AK12)</f>
+        <f t="shared" si="19"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AL14" s="1">
-        <f>IF(ISBLANK(AL9),AK14+AL13+AL10+AL12,AL9+AL12)</f>
+        <f t="shared" si="19"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AM14" s="1">
-        <f>IF(ISBLANK(AM9),AL14+AM13+AM10+AM12,AM9+AM12)</f>
+        <f t="shared" si="19"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AN14" s="1">
-        <f>IF(ISBLANK(AN9),AM14+AN13+AN10+AN12,AN9+AN12)</f>
+        <f t="shared" si="19"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AO14" s="1">
-        <f>IF(ISBLANK(AO9),AN14+AO13+AO10+AO12,AO9+AO12)</f>
+        <f t="shared" si="19"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AP14" s="1">
-        <f>IF(ISBLANK(AP9),AO14+AP13+AP10+AP12,AP9+AP12)</f>
+        <f t="shared" si="19"/>
         <v>1544828.6912307581</v>
       </c>
       <c r="AQ14" s="1">
-        <f>IF(ISBLANK(AQ9),AP14+AQ13+AQ10+AQ12,AQ9+AQ12)</f>
+        <f t="shared" si="19"/>
         <v>1557058.5850363348</v>
       </c>
       <c r="AR14" s="1">
-        <f>IF(ISBLANK(AR9),AQ14+AR13+AR10+AR12,AR9+AR12)</f>
+        <f t="shared" si="19"/>
         <v>1569385.298834539</v>
       </c>
       <c r="AS14" s="1">
@@ -7818,15 +7818,15 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:L19" si="48">0.015*F16</f>
+        <f t="shared" ref="F19:L19" si="20">0.015*F16</f>
         <v>450</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
@@ -7834,47 +7834,47 @@
         <v>14005.003341361551</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>450</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:W19" si="49">0.015*M16</f>
+        <f t="shared" ref="M19:W19" si="21">0.015*M16</f>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
@@ -7882,11 +7882,11 @@
         <v>16405.305614164514</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X19" s="1">
@@ -7894,35 +7894,35 @@
         <v>450</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:AC19" si="50">0.015*Y16</f>
+        <f t="shared" ref="Y19:AC19" si="22">0.015*Y16</f>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AI19" si="51">0.015*AD16</f>
+        <f t="shared" ref="AD19:AI19" si="23">0.015*AD16</f>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AG19" s="1">
@@ -7930,11 +7930,11 @@
         <v>19361.021937045381</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
@@ -7942,35 +7942,35 @@
         <v>450</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" ref="AK19:AV19" si="52">0.015*AK16</f>
+        <f t="shared" ref="AK19:AV19" si="24">0.015*AK16</f>
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AS19" s="1">
@@ -7978,15 +7978,15 @@
         <v>23727.143986754683</v>
       </c>
       <c r="AT19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8001,23 +8001,23 @@
         <v>164.9375</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:L20" si="53">(G21)*(G18/12)</f>
+        <f t="shared" ref="H20:L20" si="25">(G21)*(G18/12)</f>
         <v>165.83091145833333</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>166.72916222873263</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>5300.8550310037408</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>5329.567995755011</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>5358.4364890653505</v>
       </c>
       <c r="M20" s="1">
@@ -8025,47 +8025,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:X20" si="54">(M21)*(M18/12)</f>
+        <f t="shared" ref="N20:X20" si="26">(M21)*(M18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>244.89443117404517</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>246.83317875417302</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>248.78727475264355</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>250.75684067776868</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>252.74199899980098</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>254.74287315854943</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>256.75958757105462</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>9047.0233445605136</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>9118.6456127049514</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>9190.8348904721988</v>
       </c>
       <c r="Y20" s="1">
@@ -8073,47 +8073,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" ref="Z20:AC20" si="55">(Y21)*(Y18/12)</f>
+        <f t="shared" ref="Z20:AC20" si="27">(Y21)*(Y18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="27"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="27"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="27"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" ref="AD20:AJ20" si="56">(AC21)*(AC18/12)</f>
+        <f t="shared" ref="AD20:AJ20" si="28">(AC21)*(AC18/12)</f>
         <v>250.75684067776868</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="28"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="28"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="28"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="28"/>
         <v>10630.384158081555</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="28"/>
         <v>10714.541365999701</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="28"/>
         <v>10799.364818480532</v>
       </c>
       <c r="AK20" s="1">
@@ -8121,47 +8121,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" ref="AL20:AV20" si="57">(AK21)*(AK18/12)</f>
+        <f t="shared" ref="AL20:AV20" si="29">(AK21)*(AK18/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AP20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AS20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>12969.291483877218</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>13071.965041457912</v>
       </c>
       <c r="AV20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>13175.451431369454</v>
       </c>
     </row>
@@ -8183,159 +8183,159 @@
         <v>30780.768411458332</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:AU21" si="58">IF(ISBLANK(I16),H21+I20+I17+I19,I16+I19)</f>
+        <f t="shared" ref="I21:AU21" si="30">IF(ISBLANK(I16),H21+I20+I17+I19,I16+I19)</f>
         <v>978619.39033915207</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>983920.24537015578</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>989249.81336591078</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30450</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30691.0625</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30934.033411458335</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31178.92784263238</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31425.761021386552</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31674.548296139197</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31925.305136816965</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>32178.047135816767</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>32432.790008975317</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1142781.8961550121</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1151828.9194995726</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1160947.5651122776</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30450</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30691.0625</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1342785.3673366173</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1353415.7514946989</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1364130.2928606987</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30450</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30691.0625</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1638226.29270028</v>
       </c>
       <c r="AT21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1651195.5841841572</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="30"/>
         <v>1664267.5492256151</v>
       </c>
       <c r="AV21" s="1">
@@ -8697,35 +8697,35 @@
         <v>450</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:N26" si="59">0.015*D23</f>
+        <f t="shared" ref="D26:N26" si="31">0.015*D23</f>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
@@ -8733,11 +8733,11 @@
         <v>14469.12374782464</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
@@ -8745,35 +8745,35 @@
         <v>450</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" ref="P26:Z26" si="60">0.015*P23</f>
+        <f t="shared" ref="P26:Z26" si="32">0.015*P23</f>
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
@@ -8781,11 +8781,11 @@
         <v>17102.076000041245</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
@@ -8793,35 +8793,35 @@
         <v>450</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" ref="AB26:AC26" si="61">0.015*AB23</f>
+        <f t="shared" ref="AB26:AC26" si="33">0.015*AB23</f>
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26:AL26" si="62">0.015*AD23</f>
+        <f t="shared" ref="AD26:AL26" si="34">0.015*AD23</f>
         <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
@@ -8829,11 +8829,11 @@
         <v>20173.944865187685</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AM26" s="1">
@@ -8841,35 +8841,35 @@
         <v>450</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" ref="AN26:AY26" si="63">0.015*AN23</f>
+        <f t="shared" ref="AN26:AY26" si="35">0.015*AN23</f>
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AV26" s="1">
@@ -8877,15 +8877,15 @@
         <v>25161.645009854768</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AX26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -8900,47 +8900,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:O27" si="64">(D28)*(D25/12)</f>
+        <f t="shared" ref="E27:O27" si="36">(D28)*(D25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>244.89443117404517</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>246.83317875417302</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>248.78727475264355</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>250.75684067776868</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>252.74199899980098</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>254.74287315854943</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>256.75958757105462</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>8009.8214753281654</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>8073.2325620078464</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="36"/>
         <v>8137.1456531237418</v>
       </c>
       <c r="P27" s="1">
@@ -8948,47 +8948,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ref="Q27:AA27" si="65">(P28)*(P25/12)</f>
+        <f t="shared" ref="Q27:AA27" si="37">(P28)*(P25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>244.89443117404517</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>246.83317875417302</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>248.78727475264355</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>250.75684067776868</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>252.74199899980098</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>254.74287315854943</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>256.75958757105462</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>9420.2793693280892</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>9494.8565810019372</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="37"/>
         <v>9570.0241956015361</v>
       </c>
       <c r="AB27" s="1">
@@ -8996,47 +8996,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27" si="66">(AB28)*(AB25/12)</f>
+        <f t="shared" ref="AC27" si="38">(AB28)*(AB25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" ref="AD27:AM27" si="67">(AC28)*(AC25/12)</f>
+        <f t="shared" ref="AD27:AM27" si="39">(AC28)*(AC25/12)</f>
         <v>244.89443117404517</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>11065.862454448896</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>11153.467198879949</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="39"/>
         <v>11241.765480871081</v>
       </c>
       <c r="AN27" s="1">
@@ -9044,47 +9044,47 @@
         <v>241.06250000000003</v>
       </c>
       <c r="AO27" s="1">
-        <f t="shared" ref="AO27:AY27" si="68">(AN28)*(AN25/12)</f>
+        <f t="shared" ref="AO27:AY27" si="40">(AN28)*(AN25/12)</f>
         <v>242.97091145833335</v>
       </c>
       <c r="AP27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>244.89443117404517</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>246.83317875417302</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>248.78727475264355</v>
       </c>
       <c r="AS27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>250.75684067776868</v>
       </c>
       <c r="AT27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>252.74199899980098</v>
       </c>
       <c r="AU27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>254.74287315854943</v>
       </c>
       <c r="AV27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>256.75958757105462</v>
       </c>
       <c r="AW27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>13737.745712501805</v>
       </c>
       <c r="AX27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>13846.502866059111</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="40"/>
         <v>13956.121013748745</v>
       </c>
     </row>
@@ -9102,187 +9102,187 @@
         <v>30691.0625</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28:AX28" si="69">IF(ISBLANK(E23),D28+E27+E24+E26,E23+E26)</f>
+        <f t="shared" ref="E28:AX28" si="41">IF(ISBLANK(E23),D28+E27+E24+E26,E23+E26)</f>
         <v>30934.033411458335</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31178.92784263238</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31425.761021386552</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31674.548296139197</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31925.305136816965</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32178.047135816767</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32432.790008975317</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1011766.9231993471</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1019776.7446746753</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1027849.9772366831</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30450</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30691.0625</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30934.033411458335</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31178.92784263238</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31425.761021386552</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31674.548296139197</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31925.305136816965</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32178.047135816767</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32432.790008975317</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1189930.0255993374</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1199350.3049686656</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1208845.1615496676</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30450</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30691.0625</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1397793.1521409131</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1408859.0145953619</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1420012.4817942418</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30450</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30691.0625</v>
       </c>
       <c r="AO28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>30934.033411458335</v>
       </c>
       <c r="AP28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31178.92784263238</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31425.761021386552</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31674.548296139197</v>
       </c>
       <c r="AS28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>31925.305136816965</v>
       </c>
       <c r="AT28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32178.047135816767</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>32432.790008975317</v>
       </c>
       <c r="AV28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1735294.1952633858</v>
       </c>
       <c r="AW28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1749031.9409758875</v>
       </c>
       <c r="AX28" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="41"/>
         <v>1762878.4438419465</v>
       </c>
       <c r="AY28" s="1">
